--- a/Code/Results/Cases/Case_4_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2.57277475679831</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.6430847946727454</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2077405196575057</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.2012907157317372</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007662870085390897</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,30 +454,36 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.9917594500745679</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>8.918613288317147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.18570963953681</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.5425272528467247</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1777561573689752</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.1735504626367259</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007800262249010586</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -489,30 +501,36 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.8452409989100502</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>7.753722438463996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.957126267409478</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.483411574279728</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1599216190777923</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.157037010400785</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007885524622588087</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -530,30 +548,36 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.7584766010290522</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>7.060131722260593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.865888418922424</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.4598670386014874</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1527748411649981</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.1504166332882164</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007920563464000535</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -571,30 +595,36 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.7237922861844552</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>6.781998000139424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.85084407710093</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.4559873988951324</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1515947922842145</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.1493233318631866</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007926401152263482</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -612,30 +642,36 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.718070131063584</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>6.736061578727458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1.955888512316108</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.4830919749032603</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1598247746224501</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.1569473107655242</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007885995897936465</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -653,30 +689,36 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.758006271891027</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>7.056363595187719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2.437189859968043</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.6077922578730863</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1972668672492688</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.1916041570379505</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007710098693232959</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -694,30 +736,36 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.9404906296415021</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>8.511857179618289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3.473334391553976</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.8795224862552402</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2765596964327699</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2648529255195768</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.000736871071303824</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -735,30 +783,36 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.330899140308247</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>11.58875607768223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4.326770160877459</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.107078873649414</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3406691424512331</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.3239270742582647</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007113715534166885</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -776,30 +830,36 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.650232329726222</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>14.07415260463767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>4.746173383951259</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.220224554025123</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3718016776811339</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.3525627204899351</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006994861390947698</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -817,30 +877,36 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.806468895795533</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>15.28090788089435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4.910755813925164</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.264869402682507</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.3839532306211169</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.3637299869963115</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006949221986810747</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -858,30 +924,36 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.867657421050936</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>15.7519315723934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4.875029036672743</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.255166299853556</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3813185442375584</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.3613091860926332</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006959083600272218</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -899,30 +971,36 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.854380706508991</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>15.64980379485934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4.759589429897687</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.223858616282428</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3727935938340323</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.3534744986159808</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006991120778353117</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -940,30 +1018,36 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.811459278022582</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>15.3193565993729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4.689674547949608</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.204930544234912</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.367621749170624</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.3487200905899357</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007010654498831315</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -981,30 +1065,36 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.785447961618374</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>15.11888571548627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>4.300089563977679</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.099910933778744</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3386804466647391</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.3220966902666191</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007121407965628296</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1022,30 +1112,36 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.640278024168296</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>13.9970659671076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4.069875787348508</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.03820885730326</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.3214798582734772</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.3062595892111517</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007188481598754625</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1063,30 +1159,36 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.554310761321858</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>13.33031253095717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>3.940302243880694</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.003595036899696</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.3117660284258363</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.2973112631059891</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007226808085195362</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1104,30 +1206,36 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.505864238913091</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>12.95375175403404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3.896885292110653</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.9920150805055528</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.3085058547277555</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.2943072907357163</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007239747170446158</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1145,30 +1253,36 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.489621123666041</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>12.82736547420848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4.094080466945286</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.044683917667214</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3232918096299358</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.3079283913560147</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007181369035409446</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1186,30 +1300,36 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.563355833325076</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>13.40055177140002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>4.793328255463791</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1.233001662291599</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3752869963601313</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.355766293808756</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006981729928608468</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1227,30 +1347,36 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.824007138232332</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>15.41600626948349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>5.284832703521431</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.366862515752814</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.4114365173603431</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.3889661661220813</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006847414767038656</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1268,30 +1394,36 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2.006478901108409</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>16.81730906889277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>5.018815996733508</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1.294257717638317</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.3919116909304421</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.3710407637130473</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006919544452986129</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1309,30 +1441,36 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.907795004226884</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>16.06042774376357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4.083128965101992</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.041753895044224</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.322472086926382</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.3071734430268123</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007184585340663153</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1350,30 +1488,36 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.55926354435401</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>13.36877576150431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>3.179925935962672</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.8020895136930051</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2542752987796035</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.2442870975972369</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.000746125745143027</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1391,7 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.22066041810497</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>10.72450007688633</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.57277475679831</v>
+        <v>0.9466425134881433</v>
       </c>
       <c r="C2">
-        <v>0.6430847946727454</v>
+        <v>0.1460642138193755</v>
       </c>
       <c r="D2">
-        <v>0.2077405196575057</v>
+        <v>0.2992844566551867</v>
       </c>
       <c r="E2">
-        <v>0.2012907157317372</v>
+        <v>0.08385988848579906</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007662870085390897</v>
+        <v>0.7023626965737719</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5551847230782272</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.04073785162962373</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7649827302939229</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1816592261703462</v>
       </c>
       <c r="M2">
-        <v>0.9917594500745679</v>
+        <v>0.2128848322383554</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>8.918613288317147</v>
+        <v>2.595570627353425</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.18570963953681</v>
+        <v>0.8255007662231151</v>
       </c>
       <c r="C3">
-        <v>0.5425272528467247</v>
+        <v>0.146790073049349</v>
       </c>
       <c r="D3">
-        <v>0.1777561573689752</v>
+        <v>0.283517648719112</v>
       </c>
       <c r="E3">
-        <v>0.1735504626367259</v>
+        <v>0.08322871232075357</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007800262249010586</v>
+        <v>0.6994483300170344</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.5605687453623673</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04136574948487404</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6663154260990325</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1687431718882806</v>
       </c>
       <c r="M3">
-        <v>0.8452409989100502</v>
+        <v>0.1882421666038283</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.753722438463996</v>
+        <v>2.600246374097637</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.957126267409478</v>
+        <v>0.7514048989895343</v>
       </c>
       <c r="C4">
-        <v>0.483411574279728</v>
+        <v>0.1472831184065093</v>
       </c>
       <c r="D4">
-        <v>0.1599216190777923</v>
+        <v>0.2741687720407526</v>
       </c>
       <c r="E4">
-        <v>0.157037010400785</v>
+        <v>0.08292811595864436</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007885524622588087</v>
+        <v>0.6988201534894571</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.564571009298561</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.04176552289423618</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6057696056448947</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1609709505274495</v>
       </c>
       <c r="M4">
-        <v>0.7584766010290522</v>
+        <v>0.1732207868266933</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7.060131722260593</v>
+        <v>2.607026247315801</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.865888418922424</v>
+        <v>0.7212712337241669</v>
       </c>
       <c r="C5">
-        <v>0.4598670386014874</v>
+        <v>0.1474958561034008</v>
       </c>
       <c r="D5">
-        <v>0.1527748411649981</v>
+        <v>0.2704391366355026</v>
       </c>
       <c r="E5">
-        <v>0.1504166332882164</v>
+        <v>0.08282697032429276</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007920563464000535</v>
+        <v>0.6988458826875288</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.5663726127122217</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0419320225420412</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5810981318476252</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1578415907276352</v>
       </c>
       <c r="M5">
-        <v>0.7237922861844552</v>
+        <v>0.1671244217314047</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.781998000139424</v>
+        <v>2.6107408211994</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.85084407710093</v>
+        <v>0.7162709406828753</v>
       </c>
       <c r="C6">
-        <v>0.4559873988951324</v>
+        <v>0.1475318922337365</v>
       </c>
       <c r="D6">
-        <v>0.1515947922842145</v>
+        <v>0.269824576013022</v>
       </c>
       <c r="E6">
-        <v>0.1493233318631866</v>
+        <v>0.08281145005210355</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007926401152263482</v>
+        <v>0.6988668780213914</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.5666819473035716</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.04195988665254413</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5770013230321069</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1573241966941765</v>
       </c>
       <c r="M6">
-        <v>0.718070131063584</v>
+        <v>0.1661135619095262</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.736061578727458</v>
+        <v>2.611414219537878</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.955888512316108</v>
+        <v>0.7509982727317208</v>
       </c>
       <c r="C7">
-        <v>0.4830919749032603</v>
+        <v>0.1472859397285156</v>
       </c>
       <c r="D7">
-        <v>0.1598247746224501</v>
+        <v>0.2741181528710115</v>
       </c>
       <c r="E7">
-        <v>0.1569473107655242</v>
+        <v>0.08292666609080612</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007885995897936465</v>
+        <v>0.6988193730760983</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5645946211680695</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.04176775382617581</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6054368815384521</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1609285959648119</v>
       </c>
       <c r="M7">
-        <v>0.758006271891027</v>
+        <v>0.1731384712496933</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.056363595187719</v>
+        <v>2.607072530065111</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.437189859968043</v>
+        <v>0.9048068160483353</v>
       </c>
       <c r="C8">
-        <v>0.6077922578730863</v>
+        <v>0.1463046014435498</v>
       </c>
       <c r="D8">
-        <v>0.1972668672492688</v>
+        <v>0.2937770664789099</v>
       </c>
       <c r="E8">
-        <v>0.1916041570379505</v>
+        <v>0.08362389582303642</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007710098693232959</v>
+        <v>0.701110459416654</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5568938226725777</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.04095139965799577</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7309499164423983</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1771717289569494</v>
       </c>
       <c r="M8">
-        <v>0.9404906296415021</v>
+        <v>0.2043637876158542</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.511857179618289</v>
+        <v>2.596352276942071</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.473334391553976</v>
+        <v>1.209223737553174</v>
       </c>
       <c r="C9">
-        <v>0.8795224862552402</v>
+        <v>0.1447605963896805</v>
       </c>
       <c r="D9">
-        <v>0.2765596964327699</v>
+        <v>0.3351247485609434</v>
       </c>
       <c r="E9">
-        <v>0.2648529255195768</v>
+        <v>0.08570558591907762</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000736871071303824</v>
+        <v>0.7153066984783294</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.5475315631651938</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.03946314796164652</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9777490393649373</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2103734576857406</v>
       </c>
       <c r="M9">
-        <v>1.330899140308247</v>
+        <v>0.2665871834654254</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.58875607768223</v>
+        <v>2.607829811880691</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.326770160877459</v>
+        <v>1.435391261652029</v>
       </c>
       <c r="C10">
-        <v>1.107078873649414</v>
+        <v>0.1438650835860642</v>
       </c>
       <c r="D10">
-        <v>0.3406691424512331</v>
+        <v>0.3674485011063524</v>
       </c>
       <c r="E10">
-        <v>0.3239270742582647</v>
+        <v>0.08770669570538914</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007113715534166885</v>
+        <v>0.7323719117616179</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.5444648667075711</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.03843778968174405</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.160059240271551</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2357283618040213</v>
       </c>
       <c r="M10">
-        <v>1.650232329726222</v>
+        <v>0.3130925618155018</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.07415260463767</v>
+        <v>2.638257924366343</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.746173383951259</v>
+        <v>1.539018895510168</v>
       </c>
       <c r="C11">
-        <v>1.220224554025123</v>
+        <v>0.1435112709679416</v>
       </c>
       <c r="D11">
-        <v>0.3718016776811339</v>
+        <v>0.3826327492843262</v>
       </c>
       <c r="E11">
-        <v>0.3525627204899351</v>
+        <v>0.08872800254361124</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006994861390947698</v>
+        <v>0.7417464400102887</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.5439716618643899</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.03798597355435618</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.243350105822117</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2475048423423516</v>
       </c>
       <c r="M11">
-        <v>1.806468895795533</v>
+        <v>0.3344649044514867</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.28090788089435</v>
+        <v>2.657393415310366</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.910755813925164</v>
+        <v>1.578383578469186</v>
       </c>
       <c r="C12">
-        <v>1.264869402682507</v>
+        <v>0.1433851501853454</v>
       </c>
       <c r="D12">
-        <v>0.3839532306211169</v>
+        <v>0.3884566447697182</v>
       </c>
       <c r="E12">
-        <v>0.3637299869963115</v>
+        <v>0.08913145843223447</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006949221986810747</v>
+        <v>0.7455432555343435</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.5439212318484863</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.03781697612505042</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.274953614292826</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2520020464617687</v>
       </c>
       <c r="M12">
-        <v>1.867657421050936</v>
+        <v>0.3425930985189183</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.7519315723934</v>
+        <v>2.665446902204735</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.875029036672743</v>
+        <v>1.569899940428087</v>
       </c>
       <c r="C13">
-        <v>1.255166299853556</v>
+        <v>0.14341196030324</v>
       </c>
       <c r="D13">
-        <v>0.3813185442375584</v>
+        <v>0.3871989938640468</v>
       </c>
       <c r="E13">
-        <v>0.3613091860926332</v>
+        <v>0.08904381141081785</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006959083600272218</v>
+        <v>0.7447143108062875</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.5439259185079663</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.03785327966628094</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.268144232625048</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.251031768641937</v>
       </c>
       <c r="M13">
-        <v>1.854380706508991</v>
+        <v>0.340840929082745</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.64980379485934</v>
+        <v>2.663675768045636</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.759589429897687</v>
+        <v>1.54225488602404</v>
       </c>
       <c r="C14">
-        <v>1.223858616282428</v>
+        <v>0.1435007364489991</v>
       </c>
       <c r="D14">
-        <v>0.3727935938340323</v>
+        <v>0.3831103732471206</v>
       </c>
       <c r="E14">
-        <v>0.3534744986159808</v>
+        <v>0.08876085576752146</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006991120778353117</v>
+        <v>0.742053767906711</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.5439647408671675</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.03797202807989031</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.245948811372813</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2478740573285734</v>
       </c>
       <c r="M14">
-        <v>1.811459278022582</v>
+        <v>0.3351328928262944</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.3193565993729</v>
+        <v>2.658039526144364</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.689674547949608</v>
+        <v>1.525338033360129</v>
       </c>
       <c r="C15">
-        <v>1.204930544234912</v>
+        <v>0.1435561429708798</v>
       </c>
       <c r="D15">
-        <v>0.367621749170624</v>
+        <v>0.3806157571863054</v>
       </c>
       <c r="E15">
-        <v>0.3487200905899357</v>
+        <v>0.08858973632383282</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007010654498831315</v>
+        <v>0.74045672751447</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.544006480773902</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.03804503758827771</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.232362050389469</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2459448663223611</v>
       </c>
       <c r="M15">
-        <v>1.785447961618374</v>
+        <v>0.3316412240547209</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.11888571548627</v>
+        <v>2.654693719134258</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.300089563977679</v>
+        <v>1.428635270100528</v>
       </c>
       <c r="C16">
-        <v>1.099910933778744</v>
+        <v>0.1438892971095171</v>
       </c>
       <c r="D16">
-        <v>0.3386804466647391</v>
+        <v>0.3664662476713687</v>
       </c>
       <c r="E16">
-        <v>0.3220966902666191</v>
+        <v>0.08764224726718695</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007121407965628296</v>
+        <v>0.7317929640730654</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.5445158047088086</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.03846761057697723</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.154624153880434</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2349638581135025</v>
       </c>
       <c r="M16">
-        <v>1.640278024168296</v>
+        <v>0.3117005085123949</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.9970659671076</v>
+        <v>2.637117764769357</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.069875787348508</v>
+        <v>1.369512785125096</v>
       </c>
       <c r="C17">
-        <v>1.03820885730326</v>
+        <v>0.1441075033714014</v>
       </c>
       <c r="D17">
-        <v>0.3214798582734772</v>
+        <v>0.3579123300302598</v>
       </c>
       <c r="E17">
-        <v>0.3062595892111517</v>
+        <v>0.0870899390656561</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007188481598754625</v>
+        <v>0.726901233825302</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.5450638366523464</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.03873058584957878</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.107033997060341</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2282914186121729</v>
       </c>
       <c r="M17">
-        <v>1.554310761321858</v>
+        <v>0.2995256605777072</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.33031253095717</v>
+        <v>2.627723129342598</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.940302243880694</v>
+        <v>1.335575976691416</v>
       </c>
       <c r="C18">
-        <v>1.003595036899696</v>
+        <v>0.1442380410050816</v>
       </c>
       <c r="D18">
-        <v>0.3117660284258363</v>
+        <v>0.3530372106367707</v>
       </c>
       <c r="E18">
-        <v>0.2973112631059891</v>
+        <v>0.08678266554015579</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007226808085195362</v>
+        <v>0.724238354428465</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.5454635126407936</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.03888321925309235</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.079694253024343</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2244762427878726</v>
       </c>
       <c r="M18">
-        <v>1.505864238913091</v>
+        <v>0.2925431764303283</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.95375175403404</v>
+        <v>2.622814905573989</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.896885292110653</v>
+        <v>1.324096908086716</v>
       </c>
       <c r="C19">
-        <v>0.9920150805055528</v>
+        <v>0.1442830982861807</v>
       </c>
       <c r="D19">
-        <v>0.3085058547277555</v>
+        <v>0.3513941400984351</v>
       </c>
       <c r="E19">
-        <v>0.2943072907357163</v>
+        <v>0.08668039208769329</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007239747170446158</v>
+        <v>0.723362189033125</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.5456131471645733</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.03893513502343149</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.070442784845312</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2231882936768699</v>
       </c>
       <c r="M19">
-        <v>1.489621123666041</v>
+        <v>0.2901823800755636</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.82736547420848</v>
+        <v>2.62123678301586</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.094080466945286</v>
+        <v>1.375799231045903</v>
       </c>
       <c r="C20">
-        <v>1.044683917667214</v>
+        <v>0.1440837531282639</v>
       </c>
       <c r="D20">
-        <v>0.3232918096299358</v>
+        <v>0.3588182308466088</v>
       </c>
       <c r="E20">
-        <v>0.3079283913560147</v>
+        <v>0.08714765163041704</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007181369035409446</v>
+        <v>0.7274062618994179</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.5449967094144057</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.03870244922396315</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.112096567837028</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2289993485365613</v>
       </c>
       <c r="M20">
-        <v>1.563355833325076</v>
+        <v>0.3008195802680191</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.40055177140002</v>
+        <v>2.628671616356542</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.793328255463791</v>
+        <v>1.550371430651182</v>
       </c>
       <c r="C21">
-        <v>1.233001662291599</v>
+        <v>0.1434744460898685</v>
       </c>
       <c r="D21">
-        <v>0.3752869963601313</v>
+        <v>0.3843092524022893</v>
       </c>
       <c r="E21">
-        <v>0.355766293808756</v>
+        <v>0.08884350701339372</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006981729928608468</v>
+        <v>0.742828407590423</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.5439495824199838</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.0379370919804205</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.252466335377591</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2488005066742573</v>
       </c>
       <c r="M21">
-        <v>1.824007138232332</v>
+        <v>0.3368085014701663</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.41600626948349</v>
+        <v>2.659672734624792</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.284832703521431</v>
+        <v>1.665190667041912</v>
       </c>
       <c r="C22">
-        <v>1.366862515752814</v>
+        <v>0.1431221276371915</v>
       </c>
       <c r="D22">
-        <v>0.4114365173603431</v>
+        <v>0.4014026667539525</v>
       </c>
       <c r="E22">
-        <v>0.3889661661220813</v>
+        <v>0.09004962266670447</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006847414767038656</v>
+        <v>0.7543544891598231</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.5440633139420754</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.03744909756881709</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.344579749013349</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2619629545739741</v>
       </c>
       <c r="M22">
-        <v>2.006478901108409</v>
+        <v>0.360535011537479</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.81730906889277</v>
+        <v>2.684662940651521</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.018815996733508</v>
+        <v>1.603837333899264</v>
       </c>
       <c r="C23">
-        <v>1.294257717638317</v>
+        <v>0.1433059112268751</v>
       </c>
       <c r="D23">
-        <v>0.3919116909304421</v>
+        <v>0.3922382073167654</v>
       </c>
       <c r="E23">
-        <v>0.3710407637130473</v>
+        <v>0.08939668952406521</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006919544452986129</v>
+        <v>0.7480651403005822</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.5439272703312668</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.03770843458641338</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.295378798372354</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2549166718266491</v>
       </c>
       <c r="M23">
-        <v>1.907795004226884</v>
+        <v>0.3478515911190385</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.06042774376357</v>
+        <v>2.67087642645572</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.083128965101992</v>
+        <v>1.372956963437872</v>
       </c>
       <c r="C24">
-        <v>1.041753895044224</v>
+        <v>0.1440944747771837</v>
       </c>
       <c r="D24">
-        <v>0.322472086926382</v>
+        <v>0.3584085406366171</v>
       </c>
       <c r="E24">
-        <v>0.3071734430268123</v>
+        <v>0.08712152789133398</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007184585340663153</v>
+        <v>0.7271774743643959</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.5450267946101377</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.03871516528962982</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.109807716702164</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2286792285365209</v>
       </c>
       <c r="M24">
-        <v>1.55926354435401</v>
+        <v>0.3002345465129324</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.36877576150431</v>
+        <v>2.628241273622876</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.179925935962672</v>
+        <v>1.126491155080771</v>
       </c>
       <c r="C25">
-        <v>0.8020895136930051</v>
+        <v>0.1451368841254705</v>
       </c>
       <c r="D25">
-        <v>0.2542752987796035</v>
+        <v>0.3236157028864284</v>
       </c>
       <c r="E25">
-        <v>0.2442870975972369</v>
+        <v>0.08506234253789025</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000746125745143027</v>
+        <v>0.7103557568669316</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.5494187537054671</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.03985376403869223</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9108542784832423</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2012332355873596</v>
       </c>
       <c r="M25">
-        <v>1.22066041810497</v>
+        <v>0.2496295643325972</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.72450007688633</v>
+        <v>2.601028217586844</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9466425134881433</v>
+        <v>0.6823026622293469</v>
       </c>
       <c r="C2">
-        <v>0.1460642138193755</v>
+        <v>0.2211368881851605</v>
       </c>
       <c r="D2">
-        <v>0.2992844566551867</v>
+        <v>0.5694247468477442</v>
       </c>
       <c r="E2">
-        <v>0.08385988848579906</v>
+        <v>0.2064649584887519</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.7023626965737719</v>
+        <v>1.426853873779166</v>
       </c>
       <c r="H2">
-        <v>0.5551847230782272</v>
+        <v>1.340461861374479</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04073785162962373</v>
+        <v>0.09579734044755295</v>
       </c>
       <c r="K2">
-        <v>0.7649827302939229</v>
+        <v>0.2972150827219195</v>
       </c>
       <c r="L2">
-        <v>0.1816592261703462</v>
+        <v>0.3408298847538802</v>
       </c>
       <c r="M2">
-        <v>0.2128848322383554</v>
+        <v>0.2303698922331421</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.595570627353425</v>
+        <v>5.662285315498082</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8255007662231151</v>
+        <v>0.6498435481162517</v>
       </c>
       <c r="C3">
-        <v>0.146790073049349</v>
+        <v>0.2213868195474689</v>
       </c>
       <c r="D3">
-        <v>0.283517648719112</v>
+        <v>0.5682856462176744</v>
       </c>
       <c r="E3">
-        <v>0.08322871232075357</v>
+        <v>0.2072449609768547</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.6994483300170344</v>
+        <v>1.434624654355545</v>
       </c>
       <c r="H3">
-        <v>0.5605687453623673</v>
+        <v>1.348364743891352</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04136574948487404</v>
+        <v>0.09611060598067844</v>
       </c>
       <c r="K3">
-        <v>0.6663154260990325</v>
+        <v>0.2679151331702485</v>
       </c>
       <c r="L3">
-        <v>0.1687431718882806</v>
+        <v>0.3389894649816796</v>
       </c>
       <c r="M3">
-        <v>0.1882421666038283</v>
+        <v>0.2244617232952599</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.600246374097637</v>
+        <v>5.695007427484541</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7514048989895343</v>
+        <v>0.6301418147683933</v>
       </c>
       <c r="C4">
-        <v>0.1472831184065093</v>
+        <v>0.2215630116707032</v>
       </c>
       <c r="D4">
-        <v>0.2741687720407526</v>
+        <v>0.567810077904312</v>
       </c>
       <c r="E4">
-        <v>0.08292811595864436</v>
+        <v>0.2077861852938501</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.6988201534894571</v>
+        <v>1.440031430009348</v>
       </c>
       <c r="H4">
-        <v>0.564571009298561</v>
+        <v>1.353658743524107</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04176552289423618</v>
+        <v>0.09631315480749825</v>
       </c>
       <c r="K4">
-        <v>0.6057696056448947</v>
+        <v>0.2499550536106199</v>
       </c>
       <c r="L4">
-        <v>0.1609709505274495</v>
+        <v>0.3379789310784957</v>
       </c>
       <c r="M4">
-        <v>0.1732207868266933</v>
+        <v>0.2209194574215019</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.607026247315801</v>
+        <v>5.717360123319764</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7212712337241669</v>
+        <v>0.6221712633665391</v>
       </c>
       <c r="C5">
-        <v>0.1474958561034008</v>
+        <v>0.2216405523672762</v>
       </c>
       <c r="D5">
-        <v>0.2704391366355026</v>
+        <v>0.5676727104306138</v>
       </c>
       <c r="E5">
-        <v>0.08282697032429276</v>
+        <v>0.2080224377558419</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6988458826875288</v>
+        <v>1.442394639127677</v>
       </c>
       <c r="H5">
-        <v>0.5663726127122217</v>
+        <v>1.355927279958877</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0419320225420412</v>
+        <v>0.09639826647124705</v>
       </c>
       <c r="K5">
-        <v>0.5810981318476252</v>
+        <v>0.2426442527462882</v>
       </c>
       <c r="L5">
-        <v>0.1578415907276352</v>
+        <v>0.3375972853272202</v>
       </c>
       <c r="M5">
-        <v>0.1671244217314047</v>
+        <v>0.2194975707905265</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.6107408211994</v>
+        <v>5.72703814428283</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7162709406828753</v>
+        <v>0.6208512857650987</v>
       </c>
       <c r="C6">
-        <v>0.1475318922337365</v>
+        <v>0.2216537754049313</v>
       </c>
       <c r="D6">
-        <v>0.269824576013022</v>
+        <v>0.5676533131360628</v>
       </c>
       <c r="E6">
-        <v>0.08281145005210355</v>
+        <v>0.2080626164703183</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6988668780213914</v>
+        <v>1.442796709146783</v>
       </c>
       <c r="H6">
-        <v>0.5666819473035716</v>
+        <v>1.35631068849812</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04195988665254413</v>
+        <v>0.09641255467589405</v>
       </c>
       <c r="K6">
-        <v>0.5770013230321069</v>
+        <v>0.2414308018841211</v>
       </c>
       <c r="L6">
-        <v>0.1573241966941765</v>
+        <v>0.3375357378086292</v>
       </c>
       <c r="M6">
-        <v>0.1661135619095262</v>
+        <v>0.2192627774669873</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.611414219537878</v>
+        <v>5.728679560860371</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7509982727317208</v>
+        <v>0.6300340851473436</v>
       </c>
       <c r="C7">
-        <v>0.1472859397285156</v>
+        <v>0.2215640341335252</v>
       </c>
       <c r="D7">
-        <v>0.2741181528710115</v>
+        <v>0.5678079966432534</v>
       </c>
       <c r="E7">
-        <v>0.08292666609080612</v>
+        <v>0.2077893078674151</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.6988193730760983</v>
+        <v>1.440062653488312</v>
       </c>
       <c r="H7">
-        <v>0.5645946211680695</v>
+        <v>1.353688887409731</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04176775382617581</v>
+        <v>0.0963142922339153</v>
       </c>
       <c r="K7">
-        <v>0.6054368815384521</v>
+        <v>0.2498564242491597</v>
       </c>
       <c r="L7">
-        <v>0.1609285959648119</v>
+        <v>0.3379736618301692</v>
       </c>
       <c r="M7">
-        <v>0.1731384712496933</v>
+        <v>0.2209001936448196</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.607072530065111</v>
+        <v>5.717488339477086</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9048068160483353</v>
+        <v>0.6710637606825856</v>
       </c>
       <c r="C8">
-        <v>0.1463046014435498</v>
+        <v>0.2212183608131575</v>
       </c>
       <c r="D8">
-        <v>0.2937770664789099</v>
+        <v>0.5689856103862354</v>
       </c>
       <c r="E8">
-        <v>0.08362389582303642</v>
+        <v>0.2067209929795215</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.701110459416654</v>
+        <v>1.429401406783143</v>
       </c>
       <c r="H8">
-        <v>0.5568938226725777</v>
+        <v>1.343095208637337</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04095139965799577</v>
+        <v>0.09590324041457876</v>
       </c>
       <c r="K8">
-        <v>0.7309499164423983</v>
+        <v>0.2871064696271475</v>
       </c>
       <c r="L8">
-        <v>0.1771717289569494</v>
+        <v>0.3401705711096099</v>
       </c>
       <c r="M8">
-        <v>0.2043637876158542</v>
+        <v>0.22831512242362</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.596352276942071</v>
+        <v>5.673098901218907</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.209223737553174</v>
+        <v>0.7533098098158462</v>
       </c>
       <c r="C9">
-        <v>0.1447605963896805</v>
+        <v>0.2207198278303935</v>
       </c>
       <c r="D9">
-        <v>0.3351247485609434</v>
+        <v>0.5730653758840418</v>
       </c>
       <c r="E9">
-        <v>0.08570558591907762</v>
+        <v>0.2051189324704854</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.7153066984783294</v>
+        <v>1.41353291950702</v>
       </c>
       <c r="H9">
-        <v>0.5475315631651938</v>
+        <v>1.325818625838124</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03946314796164652</v>
+        <v>0.09517785035156168</v>
       </c>
       <c r="K9">
-        <v>0.9777490393649373</v>
+        <v>0.3603759037809198</v>
       </c>
       <c r="L9">
-        <v>0.2103734576857406</v>
+        <v>0.3454225712784478</v>
       </c>
       <c r="M9">
-        <v>0.2665871834654254</v>
+        <v>0.2435276144065099</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.607829811880691</v>
+        <v>5.603971310345713</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.435391261652029</v>
+        <v>0.8147991697789507</v>
       </c>
       <c r="C10">
-        <v>0.1438650835860642</v>
+        <v>0.220461517300734</v>
       </c>
       <c r="D10">
-        <v>0.3674485011063524</v>
+        <v>0.5771354923438281</v>
       </c>
       <c r="E10">
-        <v>0.08770669570538914</v>
+        <v>0.204240551892358</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.7323719117616179</v>
+        <v>1.404941079910557</v>
       </c>
       <c r="H10">
-        <v>0.5444648667075711</v>
+        <v>1.315249419026244</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03843778968174405</v>
+        <v>0.09469370724216919</v>
       </c>
       <c r="K10">
-        <v>1.160059240271551</v>
+        <v>0.4143243363541274</v>
       </c>
       <c r="L10">
-        <v>0.2357283618040213</v>
+        <v>0.3498516598138082</v>
       </c>
       <c r="M10">
-        <v>0.3130925618155018</v>
+        <v>0.2551076805717614</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.638257924366343</v>
+        <v>5.564080878544388</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.539018895510168</v>
+        <v>0.8429979970921977</v>
       </c>
       <c r="C11">
-        <v>0.1435112709679416</v>
+        <v>0.2203671656957411</v>
       </c>
       <c r="D11">
-        <v>0.3826327492843262</v>
+        <v>0.5792186833718063</v>
       </c>
       <c r="E11">
-        <v>0.08872800254361124</v>
+        <v>0.2039054218025207</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7417464400102887</v>
+        <v>1.401697422324105</v>
       </c>
       <c r="H11">
-        <v>0.5439716618643899</v>
+        <v>1.31090066179334</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03798597355435618</v>
+        <v>0.09448397284552357</v>
       </c>
       <c r="K11">
-        <v>1.243350105822117</v>
+        <v>0.4388888712294943</v>
       </c>
       <c r="L11">
-        <v>0.2475048423423516</v>
+        <v>0.3519894302250179</v>
       </c>
       <c r="M11">
-        <v>0.3344649044514867</v>
+        <v>0.2604621455223111</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.657393415310366</v>
+        <v>5.54829451313816</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.578383578469186</v>
+        <v>0.853708227237064</v>
       </c>
       <c r="C12">
-        <v>0.1433851501853454</v>
+        <v>0.2203347435206524</v>
       </c>
       <c r="D12">
-        <v>0.3884566447697182</v>
+        <v>0.5800407178393527</v>
       </c>
       <c r="E12">
-        <v>0.08913145843223447</v>
+        <v>0.2037877523647325</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7455432555343435</v>
+        <v>1.400564647673619</v>
       </c>
       <c r="H12">
-        <v>0.5439212318484863</v>
+        <v>1.309319799142344</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03781697612505042</v>
+        <v>0.09440605644055067</v>
       </c>
       <c r="K12">
-        <v>1.274953614292826</v>
+        <v>0.4481937329580603</v>
       </c>
       <c r="L12">
-        <v>0.2520020464617687</v>
+        <v>0.35281653084526</v>
       </c>
       <c r="M12">
-        <v>0.3425930985189183</v>
+        <v>0.2625020695070148</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.665446902204735</v>
+        <v>5.542655529317585</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.569899940428087</v>
+        <v>0.8514001778162879</v>
       </c>
       <c r="C13">
-        <v>0.14341196030324</v>
+        <v>0.2203415795101762</v>
       </c>
       <c r="D13">
-        <v>0.3871989938640468</v>
+        <v>0.5798622047500714</v>
       </c>
       <c r="E13">
-        <v>0.08904381141081785</v>
+        <v>0.2038126842515275</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7447143108062875</v>
+        <v>1.400804363461802</v>
       </c>
       <c r="H13">
-        <v>0.5439259185079663</v>
+        <v>1.309657336397819</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03785327966628094</v>
+        <v>0.09442277025762058</v>
       </c>
       <c r="K13">
-        <v>1.268144232625048</v>
+        <v>0.4461896479807308</v>
       </c>
       <c r="L13">
-        <v>0.251031768641937</v>
+        <v>0.3526376200584593</v>
       </c>
       <c r="M13">
-        <v>0.340840929082745</v>
+        <v>0.2620621905840892</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.663675768045636</v>
+        <v>5.543854915849948</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.54225488602404</v>
+        <v>0.8438784979106515</v>
       </c>
       <c r="C14">
-        <v>0.1435007364489991</v>
+        <v>0.2203644321624054</v>
       </c>
       <c r="D14">
-        <v>0.3831103732471206</v>
+        <v>0.5792856485600169</v>
       </c>
       <c r="E14">
-        <v>0.08876085576752146</v>
+        <v>0.2038955561184288</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.742053767906711</v>
+        <v>1.401602314155767</v>
       </c>
       <c r="H14">
-        <v>0.5439647408671675</v>
+        <v>1.310769282869444</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03797202807989031</v>
+        <v>0.09447753247338309</v>
       </c>
       <c r="K14">
-        <v>1.245948811372813</v>
+        <v>0.4396543345485782</v>
       </c>
       <c r="L14">
-        <v>0.2478740573285734</v>
+        <v>0.3520571247095603</v>
       </c>
       <c r="M14">
-        <v>0.3351328928262944</v>
+        <v>0.2606297255785819</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.658039526144364</v>
+        <v>5.547823799331383</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.525338033360129</v>
+        <v>0.8392753914554589</v>
       </c>
       <c r="C15">
-        <v>0.1435561429708798</v>
+        <v>0.2203788600289514</v>
       </c>
       <c r="D15">
-        <v>0.3806157571863054</v>
+        <v>0.5789368075061532</v>
       </c>
       <c r="E15">
-        <v>0.08858973632383282</v>
+        <v>0.2039475195566069</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.74045672751447</v>
+        <v>1.402103520453892</v>
       </c>
       <c r="H15">
-        <v>0.544006480773902</v>
+        <v>1.311458963050327</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03804503758827771</v>
+        <v>0.09451127181657348</v>
       </c>
       <c r="K15">
-        <v>1.232362050389469</v>
+        <v>0.4356516163324784</v>
       </c>
       <c r="L15">
-        <v>0.2459448663223611</v>
+        <v>0.3517038399297832</v>
       </c>
       <c r="M15">
-        <v>0.3316412240547209</v>
+        <v>0.259753897230496</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.654693719134258</v>
+        <v>5.550298987310043</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.428635270100528</v>
+        <v>0.812960818450648</v>
       </c>
       <c r="C16">
-        <v>0.1438892971095171</v>
+        <v>0.2204681473732961</v>
       </c>
       <c r="D16">
-        <v>0.3664662476713687</v>
+        <v>0.5770040008896729</v>
       </c>
       <c r="E16">
-        <v>0.08764224726718695</v>
+        <v>0.2042637476949025</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.7317929640730654</v>
+        <v>1.405166432217442</v>
       </c>
       <c r="H16">
-        <v>0.5445158047088086</v>
+        <v>1.315542851184389</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03846761057697723</v>
+        <v>0.09470762482205064</v>
       </c>
       <c r="K16">
-        <v>1.154624153880434</v>
+        <v>0.4127194070709663</v>
       </c>
       <c r="L16">
-        <v>0.2349638581135025</v>
+        <v>0.3497144164784771</v>
       </c>
       <c r="M16">
-        <v>0.3117005085123949</v>
+        <v>0.2547594838660743</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.637117764769357</v>
+        <v>5.565160010034504</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.369512785125096</v>
+        <v>0.7968753260268215</v>
       </c>
       <c r="C17">
-        <v>0.1441075033714014</v>
+        <v>0.2205288364413107</v>
       </c>
       <c r="D17">
-        <v>0.3579123300302598</v>
+        <v>0.5758775249557573</v>
       </c>
       <c r="E17">
-        <v>0.0870899390656561</v>
+        <v>0.2044742286230274</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.726901233825302</v>
+        <v>1.407215653362513</v>
       </c>
       <c r="H17">
-        <v>0.5450638366523464</v>
+        <v>1.318165718631505</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03873058584957878</v>
+        <v>0.0948307678934448</v>
       </c>
       <c r="K17">
-        <v>1.107033997060341</v>
+        <v>0.3986567915748083</v>
       </c>
       <c r="L17">
-        <v>0.2282914186121729</v>
+        <v>0.3485253849869423</v>
       </c>
       <c r="M17">
-        <v>0.2995256605777072</v>
+        <v>0.2517176528571454</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.627723129342598</v>
+        <v>5.574880936178147</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.335575976691416</v>
+        <v>0.7876447849893111</v>
       </c>
       <c r="C18">
-        <v>0.1442380410050816</v>
+        <v>0.2205659240145366</v>
       </c>
       <c r="D18">
-        <v>0.3530372106367707</v>
+        <v>0.5752514204357198</v>
       </c>
       <c r="E18">
-        <v>0.08678266554015579</v>
+        <v>0.2046013598227745</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.724238354428465</v>
+        <v>1.408456890809532</v>
       </c>
       <c r="H18">
-        <v>0.5454635126407936</v>
+        <v>1.319717554396973</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03888321925309235</v>
+        <v>0.09490258558843445</v>
       </c>
       <c r="K18">
-        <v>1.079694253024343</v>
+        <v>0.3905705544260911</v>
       </c>
       <c r="L18">
-        <v>0.2244762427878726</v>
+        <v>0.3478530651229335</v>
       </c>
       <c r="M18">
-        <v>0.2925431764303283</v>
+        <v>0.2499762357568613</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.622814905573989</v>
+        <v>5.58069431287646</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.324096908086716</v>
+        <v>0.784523180645806</v>
       </c>
       <c r="C19">
-        <v>0.1442830982861807</v>
+        <v>0.220578856493745</v>
       </c>
       <c r="D19">
-        <v>0.3513941400984351</v>
+        <v>0.5750431831325074</v>
       </c>
       <c r="E19">
-        <v>0.08668039208769329</v>
+        <v>0.2046454474085735</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.723362189033125</v>
+        <v>1.408887902767177</v>
       </c>
       <c r="H19">
-        <v>0.5456131471645733</v>
+        <v>1.32025040806468</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03893513502343149</v>
+        <v>0.09492707185398785</v>
       </c>
       <c r="K19">
-        <v>1.070442784845312</v>
+        <v>0.3878330884326147</v>
       </c>
       <c r="L19">
-        <v>0.2231882936768699</v>
+        <v>0.3476274212565897</v>
       </c>
       <c r="M19">
-        <v>0.2901823800755636</v>
+        <v>0.2493880286484682</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.62123678301586</v>
+        <v>5.582700790058169</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.375799231045903</v>
+        <v>0.798585443485706</v>
       </c>
       <c r="C20">
-        <v>0.1440837531282639</v>
+        <v>0.2205221504447721</v>
       </c>
       <c r="D20">
-        <v>0.3588182308466088</v>
+        <v>0.5759951835172643</v>
       </c>
       <c r="E20">
-        <v>0.08714765163041704</v>
+        <v>0.2044511947624379</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.7274062618994179</v>
+        <v>1.406991034029474</v>
       </c>
       <c r="H20">
-        <v>0.5449967094144057</v>
+        <v>1.317882036450925</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03870244922396315</v>
+        <v>0.09481755677697867</v>
       </c>
       <c r="K20">
-        <v>1.112096567837028</v>
+        <v>0.4001535563170648</v>
       </c>
       <c r="L20">
-        <v>0.2289993485365613</v>
+        <v>0.3486507617538734</v>
       </c>
       <c r="M20">
-        <v>0.3008195802680191</v>
+        <v>0.2520406171686815</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.628671616356542</v>
+        <v>5.573823137421385</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.550371430651182</v>
+        <v>0.8460869361663583</v>
       </c>
       <c r="C21">
-        <v>0.1434744460898685</v>
+        <v>0.2203576302223667</v>
       </c>
       <c r="D21">
-        <v>0.3843092524022893</v>
+        <v>0.5794540978322971</v>
       </c>
       <c r="E21">
-        <v>0.08884350701339372</v>
+        <v>0.2038709641956977</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.742828407590423</v>
+        <v>1.401365344658217</v>
       </c>
       <c r="H21">
-        <v>0.5439495824199838</v>
+        <v>1.310440889205083</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0379370919804205</v>
+        <v>0.09446140666553138</v>
       </c>
       <c r="K21">
-        <v>1.252466335377591</v>
+        <v>0.441573842514515</v>
       </c>
       <c r="L21">
-        <v>0.2488005066742573</v>
+        <v>0.3522271541853144</v>
       </c>
       <c r="M21">
-        <v>0.3368085014701663</v>
+        <v>0.2610501425618352</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.659672734624792</v>
+        <v>5.546648845626891</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.665190667041912</v>
+        <v>0.8773177921203512</v>
       </c>
       <c r="C22">
-        <v>0.1431221276371915</v>
+        <v>0.2202693704348704</v>
       </c>
       <c r="D22">
-        <v>0.4014026667539525</v>
+        <v>0.581908004307877</v>
       </c>
       <c r="E22">
-        <v>0.09004962266670447</v>
+        <v>0.2035455764030338</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7543544891598231</v>
+        <v>1.398245409021911</v>
       </c>
       <c r="H22">
-        <v>0.5440633139420754</v>
+        <v>1.305961831191937</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03744909756881709</v>
+        <v>0.09423741461400548</v>
       </c>
       <c r="K22">
-        <v>1.344579749013349</v>
+        <v>0.4686605064436549</v>
       </c>
       <c r="L22">
-        <v>0.2619629545739741</v>
+        <v>0.3546669146140431</v>
       </c>
       <c r="M22">
-        <v>0.360535011537479</v>
+        <v>0.2670100360822403</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.684662940651521</v>
+        <v>5.530864470437308</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.603837333899264</v>
+        <v>0.8606325181299894</v>
       </c>
       <c r="C23">
-        <v>0.1433059112268751</v>
+        <v>0.2203147212320857</v>
       </c>
       <c r="D23">
-        <v>0.3922382073167654</v>
+        <v>0.5805806667500235</v>
       </c>
       <c r="E23">
-        <v>0.08939668952406521</v>
+        <v>0.2037143269987354</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.7480651403005822</v>
+        <v>1.399859655791815</v>
       </c>
       <c r="H23">
-        <v>0.5439272703312668</v>
+        <v>1.308317277090097</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03770843458641338</v>
+        <v>0.09435616236534816</v>
       </c>
       <c r="K23">
-        <v>1.295378798372354</v>
+        <v>0.4542025411135739</v>
       </c>
       <c r="L23">
-        <v>0.2549166718266491</v>
+        <v>0.353355436147524</v>
       </c>
       <c r="M23">
-        <v>0.3478515911190385</v>
+        <v>0.2638226236598982</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.67087642645572</v>
+        <v>5.539108251301741</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.372956963437872</v>
+        <v>0.797812245683275</v>
       </c>
       <c r="C24">
-        <v>0.1440944747771837</v>
+        <v>0.2205251663393</v>
       </c>
       <c r="D24">
-        <v>0.3584085406366171</v>
+        <v>0.5759419230354581</v>
       </c>
       <c r="E24">
-        <v>0.08712152789133398</v>
+        <v>0.2044615892963932</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.7271774743643959</v>
+        <v>1.407092387831185</v>
       </c>
       <c r="H24">
-        <v>0.5450267946101377</v>
+        <v>1.318010152363939</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03871516528962982</v>
+        <v>0.09482352634178737</v>
       </c>
       <c r="K24">
-        <v>1.109807716702164</v>
+        <v>0.3994768734621914</v>
       </c>
       <c r="L24">
-        <v>0.2286792285365209</v>
+        <v>0.3485940438043116</v>
       </c>
       <c r="M24">
-        <v>0.3002345465129324</v>
+        <v>0.2518945820289602</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.628241273622876</v>
+        <v>5.574300668320035</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.126491155080771</v>
+        <v>0.7308714810504</v>
       </c>
       <c r="C25">
-        <v>0.1451368841254705</v>
+        <v>0.2208356375225975</v>
       </c>
       <c r="D25">
-        <v>0.3236157028864284</v>
+        <v>0.5717728341252979</v>
       </c>
       <c r="E25">
-        <v>0.08506234253789025</v>
+        <v>0.205499753598188</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.7103557568669316</v>
+        <v>1.417286876715508</v>
       </c>
       <c r="H25">
-        <v>0.5494187537054671</v>
+        <v>1.330118821657763</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03985376403869223</v>
+        <v>0.09536549003998873</v>
       </c>
       <c r="K25">
-        <v>0.9108542784832423</v>
+        <v>0.3405326671320097</v>
       </c>
       <c r="L25">
-        <v>0.2012332355873596</v>
+        <v>0.3439012324463562</v>
       </c>
       <c r="M25">
-        <v>0.2496295643325972</v>
+        <v>0.2393409414440946</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.601028217586844</v>
+        <v>5.620756484457587</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6823026622293469</v>
+        <v>0.9466425134881149</v>
       </c>
       <c r="C2">
-        <v>0.2211368881851605</v>
+        <v>0.1460642138193897</v>
       </c>
       <c r="D2">
-        <v>0.5694247468477442</v>
+        <v>0.2992844566553146</v>
       </c>
       <c r="E2">
-        <v>0.2064649584887519</v>
+        <v>0.08385988848577242</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.426853873779166</v>
+        <v>0.7023626965736867</v>
       </c>
       <c r="H2">
-        <v>1.340461861374479</v>
+        <v>0.5551847230781988</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09579734044755295</v>
+        <v>0.0407378516296224</v>
       </c>
       <c r="K2">
-        <v>0.2972150827219195</v>
+        <v>0.7649827302939229</v>
       </c>
       <c r="L2">
-        <v>0.3408298847538802</v>
+        <v>0.1816592261703107</v>
       </c>
       <c r="M2">
-        <v>0.2303698922331421</v>
+        <v>0.2128848322383341</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.662285315498082</v>
+        <v>2.595570627353368</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6498435481162517</v>
+        <v>0.8255007662231151</v>
       </c>
       <c r="C3">
-        <v>0.2213868195474689</v>
+        <v>0.1467900730493454</v>
       </c>
       <c r="D3">
-        <v>0.5682856462176744</v>
+        <v>0.2835176487192115</v>
       </c>
       <c r="E3">
-        <v>0.2072449609768547</v>
+        <v>0.0832287123207518</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.434624654355545</v>
+        <v>0.6994483300169847</v>
       </c>
       <c r="H3">
-        <v>1.348364743891352</v>
+        <v>0.5605687453623744</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09611060598067844</v>
+        <v>0.04136574948486071</v>
       </c>
       <c r="K3">
-        <v>0.2679151331702485</v>
+        <v>0.6663154260989899</v>
       </c>
       <c r="L3">
-        <v>0.3389894649816796</v>
+        <v>0.168743171888238</v>
       </c>
       <c r="M3">
-        <v>0.2244617232952599</v>
+        <v>0.1882421666038354</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.695007427484541</v>
+        <v>2.600246374097637</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6301418147683933</v>
+        <v>0.7514048989894775</v>
       </c>
       <c r="C4">
-        <v>0.2215630116707032</v>
+        <v>0.1472831184065839</v>
       </c>
       <c r="D4">
-        <v>0.567810077904312</v>
+        <v>0.2741687720408237</v>
       </c>
       <c r="E4">
-        <v>0.2077861852938501</v>
+        <v>0.08292811595867278</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.440031430009348</v>
+        <v>0.69882015348945</v>
       </c>
       <c r="H4">
-        <v>1.353658743524107</v>
+        <v>0.5645710092985539</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09631315480749825</v>
+        <v>0.04176552289433744</v>
       </c>
       <c r="K4">
-        <v>0.2499550536106199</v>
+        <v>0.6057696056449231</v>
       </c>
       <c r="L4">
-        <v>0.3379789310784957</v>
+        <v>0.1609709505274921</v>
       </c>
       <c r="M4">
-        <v>0.2209194574215019</v>
+        <v>0.1732207868267039</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.717360123319764</v>
+        <v>2.607026247315758</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6221712633665391</v>
+        <v>0.7212712337242806</v>
       </c>
       <c r="C5">
-        <v>0.2216405523672762</v>
+        <v>0.1474958561030135</v>
       </c>
       <c r="D5">
-        <v>0.5676727104306138</v>
+        <v>0.2704391366353462</v>
       </c>
       <c r="E5">
-        <v>0.2080224377558419</v>
+        <v>0.08282697032426789</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.442394639127677</v>
+        <v>0.6988458826876212</v>
       </c>
       <c r="H5">
-        <v>1.355927279958877</v>
+        <v>0.5663726127122004</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09639826647124705</v>
+        <v>0.04193202254211226</v>
       </c>
       <c r="K5">
-        <v>0.2426442527462882</v>
+        <v>0.5810981318477388</v>
       </c>
       <c r="L5">
-        <v>0.3375972853272202</v>
+        <v>0.1578415907274788</v>
       </c>
       <c r="M5">
-        <v>0.2194975707905265</v>
+        <v>0.167124421731387</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.72703814428283</v>
+        <v>2.610740821199357</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6208512857650987</v>
+        <v>0.7162709406828469</v>
       </c>
       <c r="C6">
-        <v>0.2216537754049313</v>
+        <v>0.1475318922337365</v>
       </c>
       <c r="D6">
-        <v>0.5676533131360628</v>
+        <v>0.2698245760128799</v>
       </c>
       <c r="E6">
-        <v>0.2080626164703183</v>
+        <v>0.08281145005211599</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.442796709146783</v>
+        <v>0.6988668780214056</v>
       </c>
       <c r="H6">
-        <v>1.35631068849812</v>
+        <v>0.5666819473036639</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09641255467589405</v>
+        <v>0.04195988665253481</v>
       </c>
       <c r="K6">
-        <v>0.2414308018841211</v>
+        <v>0.577001323032178</v>
       </c>
       <c r="L6">
-        <v>0.3375357378086292</v>
+        <v>0.1573241966941694</v>
       </c>
       <c r="M6">
-        <v>0.2192627774669873</v>
+        <v>0.1661135619095511</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.728679560860371</v>
+        <v>2.611414219537892</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6300340851473436</v>
+        <v>0.7509982727319198</v>
       </c>
       <c r="C7">
-        <v>0.2215640341335252</v>
+        <v>0.1472859397284232</v>
       </c>
       <c r="D7">
-        <v>0.5678079966432534</v>
+        <v>0.2741181528709831</v>
       </c>
       <c r="E7">
-        <v>0.2077893078674151</v>
+        <v>0.08292666609078836</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.440062653488312</v>
+        <v>0.6988193730760557</v>
       </c>
       <c r="H7">
-        <v>1.353688887409731</v>
+        <v>0.5645946211680837</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0963142922339153</v>
+        <v>0.04176775382612918</v>
       </c>
       <c r="K7">
-        <v>0.2498564242491597</v>
+        <v>0.6054368815383668</v>
       </c>
       <c r="L7">
-        <v>0.3379736618301692</v>
+        <v>0.1609285959648403</v>
       </c>
       <c r="M7">
-        <v>0.2209001936448196</v>
+        <v>0.1731384712496933</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.717488339477086</v>
+        <v>2.607072530065224</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6710637606825856</v>
+        <v>0.9048068160483638</v>
       </c>
       <c r="C8">
-        <v>0.2212183608131575</v>
+        <v>0.1463046014435569</v>
       </c>
       <c r="D8">
-        <v>0.5689856103862354</v>
+        <v>0.2937770664789099</v>
       </c>
       <c r="E8">
-        <v>0.2067209929795215</v>
+        <v>0.08362389582303997</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.429401406783143</v>
+        <v>0.7011104594165971</v>
       </c>
       <c r="H8">
-        <v>1.343095208637337</v>
+        <v>0.556893822672464</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09590324041457876</v>
+        <v>0.04095139965801131</v>
       </c>
       <c r="K8">
-        <v>0.2871064696271475</v>
+        <v>0.7309499164424125</v>
       </c>
       <c r="L8">
-        <v>0.3401705711096099</v>
+        <v>0.1771717289569636</v>
       </c>
       <c r="M8">
-        <v>0.22831512242362</v>
+        <v>0.2043637876158506</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.673098901218907</v>
+        <v>2.596352276942071</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7533098098158462</v>
+        <v>1.209223737553174</v>
       </c>
       <c r="C9">
-        <v>0.2207198278303935</v>
+        <v>0.1447605963896663</v>
       </c>
       <c r="D9">
-        <v>0.5730653758840418</v>
+        <v>0.3351247485608297</v>
       </c>
       <c r="E9">
-        <v>0.2051189324704854</v>
+        <v>0.08570558591907584</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.41353291950702</v>
+        <v>0.7153066984782868</v>
       </c>
       <c r="H9">
-        <v>1.325818625838124</v>
+        <v>0.5475315631651938</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09517785035156168</v>
+        <v>0.03946314796154882</v>
       </c>
       <c r="K9">
-        <v>0.3603759037809198</v>
+        <v>0.9777490393650226</v>
       </c>
       <c r="L9">
-        <v>0.3454225712784478</v>
+        <v>0.2103734576856695</v>
       </c>
       <c r="M9">
-        <v>0.2435276144065099</v>
+        <v>0.2665871834654077</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.603971310345713</v>
+        <v>2.607829811880691</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8147991697789507</v>
+        <v>1.435391261652114</v>
       </c>
       <c r="C10">
-        <v>0.220461517300734</v>
+        <v>0.1438650835859647</v>
       </c>
       <c r="D10">
-        <v>0.5771354923438281</v>
+        <v>0.3674485011063524</v>
       </c>
       <c r="E10">
-        <v>0.204240551892358</v>
+        <v>0.08770669570540335</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.404941079910557</v>
+        <v>0.732371911761561</v>
       </c>
       <c r="H10">
-        <v>1.315249419026244</v>
+        <v>0.544464866707429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09469370724216919</v>
+        <v>0.03843778968176181</v>
       </c>
       <c r="K10">
-        <v>0.4143243363541274</v>
+        <v>1.160059240271408</v>
       </c>
       <c r="L10">
-        <v>0.3498516598138082</v>
+        <v>0.2357283618039503</v>
       </c>
       <c r="M10">
-        <v>0.2551076805717614</v>
+        <v>0.3130925618154805</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.564080878544388</v>
+        <v>2.638257924366314</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8429979970921977</v>
+        <v>1.539018895510139</v>
       </c>
       <c r="C11">
-        <v>0.2203671656957411</v>
+        <v>0.1435112709672453</v>
       </c>
       <c r="D11">
-        <v>0.5792186833718063</v>
+        <v>0.3826327492844683</v>
       </c>
       <c r="E11">
-        <v>0.2039054218025207</v>
+        <v>0.08872800254362545</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.401697422324105</v>
+        <v>0.7417464400102318</v>
       </c>
       <c r="H11">
-        <v>1.31090066179334</v>
+        <v>0.5439716618643757</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09448397284552357</v>
+        <v>0.0379859735544672</v>
       </c>
       <c r="K11">
-        <v>0.4388888712294943</v>
+        <v>1.243350105822003</v>
       </c>
       <c r="L11">
-        <v>0.3519894302250179</v>
+        <v>0.2475048423424084</v>
       </c>
       <c r="M11">
-        <v>0.2604621455223111</v>
+        <v>0.3344649044514796</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.54829451313816</v>
+        <v>2.657393415310253</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.853708227237064</v>
+        <v>1.578383578469442</v>
       </c>
       <c r="C12">
-        <v>0.2203347435206524</v>
+        <v>0.1433851501854804</v>
       </c>
       <c r="D12">
-        <v>0.5800407178393527</v>
+        <v>0.3884566447695903</v>
       </c>
       <c r="E12">
-        <v>0.2037877523647325</v>
+        <v>0.08913145843223447</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.400564647673619</v>
+        <v>0.745543255534372</v>
       </c>
       <c r="H12">
-        <v>1.309319799142344</v>
+        <v>0.5439212318485005</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09440605644055067</v>
+        <v>0.03781697612508195</v>
       </c>
       <c r="K12">
-        <v>0.4481937329580603</v>
+        <v>1.27495361429277</v>
       </c>
       <c r="L12">
-        <v>0.35281653084526</v>
+        <v>0.2520020464617687</v>
       </c>
       <c r="M12">
-        <v>0.2625020695070148</v>
+        <v>0.3425930985189254</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.542655529317585</v>
+        <v>2.665446902204764</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8514001778162879</v>
+        <v>1.56989994042803</v>
       </c>
       <c r="C13">
-        <v>0.2203415795101762</v>
+        <v>0.1434119603033466</v>
       </c>
       <c r="D13">
-        <v>0.5798622047500714</v>
+        <v>0.3871989938639189</v>
       </c>
       <c r="E13">
-        <v>0.2038126842515275</v>
+        <v>0.08904381141081785</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.400804363461802</v>
+        <v>0.7447143108062448</v>
       </c>
       <c r="H13">
-        <v>1.309657336397819</v>
+        <v>0.5439259185079663</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09442277025762058</v>
+        <v>0.03785327966624363</v>
       </c>
       <c r="K13">
-        <v>0.4461896479807308</v>
+        <v>1.268144232625133</v>
       </c>
       <c r="L13">
-        <v>0.3526376200584593</v>
+        <v>0.2510317686418517</v>
       </c>
       <c r="M13">
-        <v>0.2620621905840892</v>
+        <v>0.3408409290827379</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.543854915849948</v>
+        <v>2.663675768045721</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8438784979106515</v>
+        <v>1.542254886024153</v>
       </c>
       <c r="C14">
-        <v>0.2203644321624054</v>
+        <v>0.143500736448992</v>
       </c>
       <c r="D14">
-        <v>0.5792856485600169</v>
+        <v>0.3831103732471632</v>
       </c>
       <c r="E14">
-        <v>0.2038955561184288</v>
+        <v>0.08876085576752146</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.401602314155767</v>
+        <v>0.7420537679066825</v>
       </c>
       <c r="H14">
-        <v>1.310769282869444</v>
+        <v>0.5439647408671675</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09447753247338309</v>
+        <v>0.03797202807989519</v>
       </c>
       <c r="K14">
-        <v>0.4396543345485782</v>
+        <v>1.245948811372898</v>
       </c>
       <c r="L14">
-        <v>0.3520571247095603</v>
+        <v>0.247874057328616</v>
       </c>
       <c r="M14">
-        <v>0.2606297255785819</v>
+        <v>0.3351328928262873</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.547823799331383</v>
+        <v>2.658039526144393</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8392753914554589</v>
+        <v>1.525338033360129</v>
       </c>
       <c r="C15">
-        <v>0.2203788600289514</v>
+        <v>0.143556142970894</v>
       </c>
       <c r="D15">
-        <v>0.5789368075061532</v>
+        <v>0.3806157571864333</v>
       </c>
       <c r="E15">
-        <v>0.2039475195566069</v>
+        <v>0.08858973632386835</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.402103520453892</v>
+        <v>0.74045672751447</v>
       </c>
       <c r="H15">
-        <v>1.311458963050327</v>
+        <v>0.5440064807738878</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09451127181657348</v>
+        <v>0.03804503758835276</v>
       </c>
       <c r="K15">
-        <v>0.4356516163324784</v>
+        <v>1.232362050389526</v>
       </c>
       <c r="L15">
-        <v>0.3517038399297832</v>
+        <v>0.2459448663223185</v>
       </c>
       <c r="M15">
-        <v>0.259753897230496</v>
+        <v>0.3316412240547351</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.550298987310043</v>
+        <v>2.654693719134286</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.812960818450648</v>
+        <v>1.428635270100528</v>
       </c>
       <c r="C16">
-        <v>0.2204681473732961</v>
+        <v>0.1438892971092685</v>
       </c>
       <c r="D16">
-        <v>0.5770040008896729</v>
+        <v>0.3664662476714113</v>
       </c>
       <c r="E16">
-        <v>0.2042637476949025</v>
+        <v>0.0876422472671905</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.405166432217442</v>
+        <v>0.7317929640730227</v>
       </c>
       <c r="H16">
-        <v>1.315542851184389</v>
+        <v>0.5445158047088086</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09470762482205064</v>
+        <v>0.03846761057700609</v>
       </c>
       <c r="K16">
-        <v>0.4127194070709663</v>
+        <v>1.154624153880377</v>
       </c>
       <c r="L16">
-        <v>0.3497144164784771</v>
+        <v>0.2349638581134315</v>
       </c>
       <c r="M16">
-        <v>0.2547594838660743</v>
+        <v>0.3117005085124021</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.565160010034504</v>
+        <v>2.637117764769329</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7968753260268215</v>
+        <v>1.369512785124897</v>
       </c>
       <c r="C17">
-        <v>0.2205288364413107</v>
+        <v>0.1441075033715151</v>
       </c>
       <c r="D17">
-        <v>0.5758775249557573</v>
+        <v>0.3579123300302172</v>
       </c>
       <c r="E17">
-        <v>0.2044742286230274</v>
+        <v>0.0870899390656561</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.407215653362513</v>
+        <v>0.7269012338253162</v>
       </c>
       <c r="H17">
-        <v>1.318165718631505</v>
+        <v>0.5450638366523322</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0948307678934448</v>
+        <v>0.03873058584963873</v>
       </c>
       <c r="K17">
-        <v>0.3986567915748083</v>
+        <v>1.107033997060284</v>
       </c>
       <c r="L17">
-        <v>0.3485253849869423</v>
+        <v>0.2282914186121729</v>
       </c>
       <c r="M17">
-        <v>0.2517176528571454</v>
+        <v>0.2995256605777143</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.574880936178147</v>
+        <v>2.627723129342513</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7876447849893111</v>
+        <v>1.335575976691445</v>
       </c>
       <c r="C18">
-        <v>0.2205659240145366</v>
+        <v>0.1442380410050816</v>
       </c>
       <c r="D18">
-        <v>0.5752514204357198</v>
+        <v>0.3530372106365292</v>
       </c>
       <c r="E18">
-        <v>0.2046013598227745</v>
+        <v>0.08678266554015579</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.408456890809532</v>
+        <v>0.7242383544284934</v>
       </c>
       <c r="H18">
-        <v>1.319717554396973</v>
+        <v>0.5454635126407936</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09490258558843445</v>
+        <v>0.03888321925312388</v>
       </c>
       <c r="K18">
-        <v>0.3905705544260911</v>
+        <v>1.0796942530244</v>
       </c>
       <c r="L18">
-        <v>0.3478530651229335</v>
+        <v>0.2244762427878868</v>
       </c>
       <c r="M18">
-        <v>0.2499762357568613</v>
+        <v>0.2925431764303283</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.58069431287646</v>
+        <v>2.622814905574074</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.784523180645806</v>
+        <v>1.32409690808683</v>
       </c>
       <c r="C19">
-        <v>0.220578856493745</v>
+        <v>0.1442830982863228</v>
       </c>
       <c r="D19">
-        <v>0.5750431831325074</v>
+        <v>0.351394140098634</v>
       </c>
       <c r="E19">
-        <v>0.2046454474085735</v>
+        <v>0.08668039208768619</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.408887902767177</v>
+        <v>0.7233621890331534</v>
       </c>
       <c r="H19">
-        <v>1.32025040806468</v>
+        <v>0.5456131471645875</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09492707185398785</v>
+        <v>0.03893513502339641</v>
       </c>
       <c r="K19">
-        <v>0.3878330884326147</v>
+        <v>1.070442784845397</v>
       </c>
       <c r="L19">
-        <v>0.3476274212565897</v>
+        <v>0.2231882936768415</v>
       </c>
       <c r="M19">
-        <v>0.2493880286484682</v>
+        <v>0.2901823800755565</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.582700790058169</v>
+        <v>2.621236783015945</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.798585443485706</v>
+        <v>1.375799231045875</v>
       </c>
       <c r="C20">
-        <v>0.2205221504447721</v>
+        <v>0.1440837531279158</v>
       </c>
       <c r="D20">
-        <v>0.5759951835172643</v>
+        <v>0.358818230846623</v>
       </c>
       <c r="E20">
-        <v>0.2044511947624379</v>
+        <v>0.08714765163040283</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.406991034029474</v>
+        <v>0.7274062618993327</v>
       </c>
       <c r="H20">
-        <v>1.317882036450925</v>
+        <v>0.5449967094144199</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09481755677697867</v>
+        <v>0.03870244922396715</v>
       </c>
       <c r="K20">
-        <v>0.4001535563170648</v>
+        <v>1.112096567836829</v>
       </c>
       <c r="L20">
-        <v>0.3486507617538734</v>
+        <v>0.2289993485365898</v>
       </c>
       <c r="M20">
-        <v>0.2520406171686815</v>
+        <v>0.3008195802680405</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.573823137421385</v>
+        <v>2.628671616356513</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8460869361663583</v>
+        <v>1.550371430651211</v>
       </c>
       <c r="C21">
-        <v>0.2203576302223667</v>
+        <v>0.1434744460896269</v>
       </c>
       <c r="D21">
-        <v>0.5794540978322971</v>
+        <v>0.3843092524023035</v>
       </c>
       <c r="E21">
-        <v>0.2038709641956977</v>
+        <v>0.08884350701340793</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.401365344658217</v>
+        <v>0.7428284075903946</v>
       </c>
       <c r="H21">
-        <v>1.310440889205083</v>
+        <v>0.5439495824200975</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09446140666553138</v>
+        <v>0.03793709198027484</v>
       </c>
       <c r="K21">
-        <v>0.441573842514515</v>
+        <v>1.252466335377619</v>
       </c>
       <c r="L21">
-        <v>0.3522271541853144</v>
+        <v>0.2488005066742716</v>
       </c>
       <c r="M21">
-        <v>0.2610501425618352</v>
+        <v>0.3368085014701663</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.546648845626891</v>
+        <v>2.659672734624792</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8773177921203512</v>
+        <v>1.665190667041941</v>
       </c>
       <c r="C22">
-        <v>0.2202693704348704</v>
+        <v>0.1431221276373336</v>
       </c>
       <c r="D22">
-        <v>0.581908004307877</v>
+        <v>0.4014026667538246</v>
       </c>
       <c r="E22">
-        <v>0.2035455764030338</v>
+        <v>0.09004962266671868</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.398245409021911</v>
+        <v>0.7543544891597804</v>
       </c>
       <c r="H22">
-        <v>1.305961831191937</v>
+        <v>0.5440633139420896</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09423741461400548</v>
+        <v>0.03744909756873493</v>
       </c>
       <c r="K22">
-        <v>0.4686605064436549</v>
+        <v>1.344579749013235</v>
       </c>
       <c r="L22">
-        <v>0.3546669146140431</v>
+        <v>0.2619629545738889</v>
       </c>
       <c r="M22">
-        <v>0.2670100360822403</v>
+        <v>0.3605350115374719</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.530864470437308</v>
+        <v>2.684662940651435</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8606325181299894</v>
+        <v>1.603837333899321</v>
       </c>
       <c r="C23">
-        <v>0.2203147212320857</v>
+        <v>0.1433059112266477</v>
       </c>
       <c r="D23">
-        <v>0.5805806667500235</v>
+        <v>0.3922382073168933</v>
       </c>
       <c r="E23">
-        <v>0.2037143269987354</v>
+        <v>0.08939668952403679</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.399859655791815</v>
+        <v>0.748065140300568</v>
       </c>
       <c r="H23">
-        <v>1.308317277090097</v>
+        <v>0.5439272703312525</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09435616236534816</v>
+        <v>0.03770843458648399</v>
       </c>
       <c r="K23">
-        <v>0.4542025411135739</v>
+        <v>1.295378798372354</v>
       </c>
       <c r="L23">
-        <v>0.353355436147524</v>
+        <v>0.2549166718266918</v>
       </c>
       <c r="M23">
-        <v>0.2638226236598982</v>
+        <v>0.3478515911190243</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.539108251301741</v>
+        <v>2.670876426455749</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.797812245683275</v>
+        <v>1.372956963437787</v>
       </c>
       <c r="C24">
-        <v>0.2205251663393</v>
+        <v>0.1440944747771979</v>
       </c>
       <c r="D24">
-        <v>0.5759419230354581</v>
+        <v>0.3584085406366313</v>
       </c>
       <c r="E24">
-        <v>0.2044615892963932</v>
+        <v>0.08712152789133754</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.407092387831185</v>
+        <v>0.7271774743643959</v>
       </c>
       <c r="H24">
-        <v>1.318010152363939</v>
+        <v>0.5450267946102514</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09482352634178737</v>
+        <v>0.03871516528963248</v>
       </c>
       <c r="K24">
-        <v>0.3994768734621914</v>
+        <v>1.109807716702221</v>
       </c>
       <c r="L24">
-        <v>0.3485940438043116</v>
+        <v>0.2286792285366488</v>
       </c>
       <c r="M24">
-        <v>0.2518945820289602</v>
+        <v>0.3002345465129395</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.574300668320035</v>
+        <v>2.628241273622876</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7308714810504</v>
+        <v>1.126491155080714</v>
       </c>
       <c r="C25">
-        <v>0.2208356375225975</v>
+        <v>0.1451368841252361</v>
       </c>
       <c r="D25">
-        <v>0.5717728341252979</v>
+        <v>0.3236157028862436</v>
       </c>
       <c r="E25">
-        <v>0.205499753598188</v>
+        <v>0.08506234253787426</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.417286876715508</v>
+        <v>0.7103557568669032</v>
       </c>
       <c r="H25">
-        <v>1.330118821657763</v>
+        <v>0.5494187537055808</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09536549003998873</v>
+        <v>0.03985376403873619</v>
       </c>
       <c r="K25">
-        <v>0.3405326671320097</v>
+        <v>0.9108542784831855</v>
       </c>
       <c r="L25">
-        <v>0.3439012324463562</v>
+        <v>0.2012332355873454</v>
       </c>
       <c r="M25">
-        <v>0.2393409414440946</v>
+        <v>0.2496295643326043</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.620756484457587</v>
+        <v>2.601028217586759</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9466425134881149</v>
+        <v>2.393166758478458</v>
       </c>
       <c r="C2">
-        <v>0.1460642138193897</v>
+        <v>0.7287104844609189</v>
       </c>
       <c r="D2">
-        <v>0.2992844566553146</v>
+        <v>0.2015048234538881</v>
       </c>
       <c r="E2">
-        <v>0.08385988848577242</v>
+        <v>0.2608771191510257</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.7023626965736867</v>
+        <v>0.2975513034930231</v>
       </c>
       <c r="H2">
-        <v>0.5551847230781988</v>
+        <v>0.001639144887481292</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003897710564817469</v>
       </c>
       <c r="J2">
-        <v>0.0407378516296224</v>
+        <v>0.243212483760793</v>
       </c>
       <c r="K2">
-        <v>0.7649827302939229</v>
+        <v>0.1699192072851083</v>
       </c>
       <c r="L2">
-        <v>0.1816592261703107</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2128848322383341</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.595570627353368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.956284469250285</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.090020439112166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8255007662231151</v>
+        <v>2.090506844747665</v>
       </c>
       <c r="C3">
-        <v>0.1467900730493454</v>
+        <v>0.6465276314810637</v>
       </c>
       <c r="D3">
-        <v>0.2835176487192115</v>
+        <v>0.1749465956300753</v>
       </c>
       <c r="E3">
-        <v>0.0832287123207518</v>
+        <v>0.2342123699330259</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.6994483300169847</v>
+        <v>0.2760703183870987</v>
       </c>
       <c r="H3">
-        <v>0.5605687453623744</v>
+        <v>0.0007186317896297201</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002509995099635898</v>
       </c>
       <c r="J3">
-        <v>0.04136574948486071</v>
+        <v>0.2380780852430391</v>
       </c>
       <c r="K3">
-        <v>0.6663154260989899</v>
+        <v>0.176064256602368</v>
       </c>
       <c r="L3">
-        <v>0.168743171888238</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1882421666038354</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.600246374097637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.8327485542370141</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.033407840399164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7514048989894775</v>
+        <v>1.90422942518785</v>
       </c>
       <c r="C4">
-        <v>0.1472831184065839</v>
+        <v>0.5963621559814669</v>
       </c>
       <c r="D4">
-        <v>0.2741687720408237</v>
+        <v>0.1587616385649824</v>
       </c>
       <c r="E4">
-        <v>0.08292811595867278</v>
+        <v>0.2178007116916518</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.69882015348945</v>
+        <v>0.2633109943369973</v>
       </c>
       <c r="H4">
-        <v>0.5645710092985539</v>
+        <v>0.0003282289055424048</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001830858933675739</v>
       </c>
       <c r="J4">
-        <v>0.04176552289433744</v>
+        <v>0.2352250788759918</v>
       </c>
       <c r="K4">
-        <v>0.6057696056449231</v>
+        <v>0.1801609436737674</v>
       </c>
       <c r="L4">
-        <v>0.1609709505274921</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1732207868267039</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.607026247315758</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.7569692820219771</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.000177673479158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7212712337242806</v>
+        <v>1.828070798856544</v>
       </c>
       <c r="C5">
-        <v>0.1474958561030135</v>
+        <v>0.5769987619297012</v>
       </c>
       <c r="D5">
-        <v>0.2704391366353462</v>
+        <v>0.1521923869696309</v>
       </c>
       <c r="E5">
-        <v>0.08282697032426789</v>
+        <v>0.21102436044049</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6988458826876212</v>
+        <v>0.2577221140306918</v>
       </c>
       <c r="H5">
-        <v>0.5663726127122004</v>
+        <v>0.0002100564012503803</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001652773420221187</v>
       </c>
       <c r="J5">
-        <v>0.04193202254211226</v>
+        <v>0.2338779090443595</v>
       </c>
       <c r="K5">
-        <v>0.5810981318477388</v>
+        <v>0.1816270389731169</v>
       </c>
       <c r="L5">
-        <v>0.1578415907274788</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.167124421731387</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.610740821199357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.7262863543614628</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.9854219978684711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7162709406828469</v>
+        <v>1.815259784682695</v>
       </c>
       <c r="C6">
-        <v>0.1475318922337365</v>
+        <v>0.5750296999465547</v>
       </c>
       <c r="D6">
-        <v>0.2698245760128799</v>
+        <v>0.1511021491681817</v>
       </c>
       <c r="E6">
-        <v>0.08281145005211599</v>
+        <v>0.2098056763046543</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6988668780214056</v>
+        <v>0.256201981046992</v>
       </c>
       <c r="H6">
-        <v>0.5666819473036639</v>
+        <v>0.0001925778261970823</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001704124844215116</v>
       </c>
       <c r="J6">
-        <v>0.04195988665253481</v>
+        <v>0.2333452851709623</v>
       </c>
       <c r="K6">
-        <v>0.577001323032178</v>
+        <v>0.1815325326655355</v>
       </c>
       <c r="L6">
-        <v>0.1573241966941694</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1661135619095511</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.611414219537892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.7214214021111118</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.9810695230928275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7509982727319198</v>
+        <v>1.902771863697438</v>
       </c>
       <c r="C7">
-        <v>0.1472859397284232</v>
+        <v>0.5995033398884004</v>
       </c>
       <c r="D7">
-        <v>0.2741181528709831</v>
+        <v>0.1586702374395941</v>
       </c>
       <c r="E7">
-        <v>0.08292666609078836</v>
+        <v>0.217456524541106</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.6988193730760557</v>
+        <v>0.2616008899750568</v>
       </c>
       <c r="H7">
-        <v>0.5645946211680837</v>
+        <v>0.0003255245771049964</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002027970346272667</v>
       </c>
       <c r="J7">
-        <v>0.04176775382612918</v>
+        <v>0.2343519364701692</v>
       </c>
       <c r="K7">
-        <v>0.6054368815383668</v>
+        <v>0.1792464956447581</v>
       </c>
       <c r="L7">
-        <v>0.1609285959648403</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1731384712496933</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.607072530065224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.7571837664037488</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.9947227553776656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9048068160483638</v>
+        <v>2.28832111427198</v>
       </c>
       <c r="C8">
-        <v>0.1463046014435569</v>
+        <v>0.7048589149206919</v>
       </c>
       <c r="D8">
-        <v>0.2937770664789099</v>
+        <v>0.1923159093438187</v>
       </c>
       <c r="E8">
-        <v>0.08362389582303997</v>
+        <v>0.2513555181973217</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.7011104594165971</v>
+        <v>0.2878857718851719</v>
       </c>
       <c r="H8">
-        <v>0.556893822672464</v>
+        <v>0.00128147261745859</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003618366646952254</v>
       </c>
       <c r="J8">
-        <v>0.04095139965801131</v>
+        <v>0.2402508754971819</v>
       </c>
       <c r="K8">
-        <v>0.7309499164424125</v>
+        <v>0.1707456896842849</v>
       </c>
       <c r="L8">
-        <v>0.1771717289569636</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2043637876158506</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.596352276942071</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.9145072017168516</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.063219173220858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.209223737553174</v>
+        <v>3.042132750831058</v>
       </c>
       <c r="C9">
-        <v>0.1447605963896663</v>
+        <v>0.9080080217396187</v>
       </c>
       <c r="D9">
-        <v>0.3351247485608297</v>
+        <v>0.2594423226649241</v>
       </c>
       <c r="E9">
-        <v>0.08570558591907584</v>
+        <v>0.318105778305231</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.7153066984782868</v>
+        <v>0.3461660958437704</v>
       </c>
       <c r="H9">
-        <v>0.5475315631651938</v>
+        <v>0.004678530096343336</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.007956912403233929</v>
       </c>
       <c r="J9">
-        <v>0.03946314796154882</v>
+        <v>0.2558913994517411</v>
       </c>
       <c r="K9">
-        <v>0.9777490393650226</v>
+        <v>0.1584638732308044</v>
       </c>
       <c r="L9">
-        <v>0.2103734576856695</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2665871834654077</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.607829811880691</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.222844600964066</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.220278664849957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.435391261652114</v>
+        <v>3.613428758288933</v>
       </c>
       <c r="C10">
-        <v>0.1438650835859647</v>
+        <v>1.064285926028333</v>
       </c>
       <c r="D10">
-        <v>0.3674485011063524</v>
+        <v>0.3096784700556015</v>
       </c>
       <c r="E10">
-        <v>0.08770669570540335</v>
+        <v>0.3408291128565466</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.732371911761561</v>
+        <v>0.3827229348686814</v>
       </c>
       <c r="H10">
-        <v>0.544464866707429</v>
+        <v>0.008125090020790093</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01231397896550934</v>
       </c>
       <c r="J10">
-        <v>0.03843778968176181</v>
+        <v>0.2645278327643865</v>
       </c>
       <c r="K10">
-        <v>1.160059240271408</v>
+        <v>0.1475266462239269</v>
       </c>
       <c r="L10">
-        <v>0.2357283618039503</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3130925618154805</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.638257924366314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.413692937708618</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.316377040319253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.539018895510139</v>
+        <v>4.041750661671813</v>
       </c>
       <c r="C11">
-        <v>0.1435112709672453</v>
+        <v>1.169737975722683</v>
       </c>
       <c r="D11">
-        <v>0.3826327492844683</v>
+        <v>0.3325083095082135</v>
       </c>
       <c r="E11">
-        <v>0.08872800254362545</v>
+        <v>0.1712820775642143</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7417464400102318</v>
+        <v>0.3278534540242362</v>
       </c>
       <c r="H11">
-        <v>0.5439716618643757</v>
+        <v>0.02578308184708789</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01438369168309617</v>
       </c>
       <c r="J11">
-        <v>0.0379859735544672</v>
+        <v>0.2319666881574278</v>
       </c>
       <c r="K11">
-        <v>1.243350105822003</v>
+        <v>0.1153791356975287</v>
       </c>
       <c r="L11">
-        <v>0.2475048423424084</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3344649044514796</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.657393415310253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.193027897294854</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.132104553070747</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.578383578469442</v>
+        <v>4.292158423875321</v>
       </c>
       <c r="C12">
-        <v>0.1433851501854804</v>
+        <v>1.22158088526345</v>
       </c>
       <c r="D12">
-        <v>0.3884566447695903</v>
+        <v>0.3411055149008604</v>
       </c>
       <c r="E12">
-        <v>0.08913145843223447</v>
+        <v>0.08921680622398576</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.745543255534372</v>
+        <v>0.2794828103897942</v>
       </c>
       <c r="H12">
-        <v>0.5439212318485005</v>
+        <v>0.06354746782464815</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01488983011981304</v>
       </c>
       <c r="J12">
-        <v>0.03781697612508195</v>
+        <v>0.2052438729887456</v>
       </c>
       <c r="K12">
-        <v>1.27495361429277</v>
+        <v>0.09539706068498965</v>
       </c>
       <c r="L12">
-        <v>0.2520020464617687</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3425930985189254</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.665446902204764</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.9842511797217668</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.9736975538427828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.56989994042803</v>
+        <v>4.416866804627489</v>
       </c>
       <c r="C13">
-        <v>0.1434119603033466</v>
+        <v>1.240061145498373</v>
       </c>
       <c r="D13">
-        <v>0.3871989938639189</v>
+        <v>0.3390781583306932</v>
       </c>
       <c r="E13">
-        <v>0.08904381141081785</v>
+        <v>0.06815332404401531</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7447143108062448</v>
+        <v>0.2306207153807591</v>
       </c>
       <c r="H13">
-        <v>0.5439259185079663</v>
+        <v>0.1182870189365701</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01445617215139805</v>
       </c>
       <c r="J13">
-        <v>0.03785327966624363</v>
+        <v>0.1800179015251828</v>
       </c>
       <c r="K13">
-        <v>1.268144232625133</v>
+        <v>0.08186342539514868</v>
       </c>
       <c r="L13">
-        <v>0.2510317686418517</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3408409290827379</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.663675768045721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.7748769631440169</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.8172829266201802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.542254886024153</v>
+        <v>4.446922939593321</v>
       </c>
       <c r="C14">
-        <v>0.143500736448992</v>
+        <v>1.239028266890728</v>
       </c>
       <c r="D14">
-        <v>0.3831103732471632</v>
+        <v>0.332849882435724</v>
       </c>
       <c r="E14">
-        <v>0.08876085576752146</v>
+        <v>0.0891137178198278</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.7420537679066825</v>
+        <v>0.1965139452078901</v>
       </c>
       <c r="H14">
-        <v>0.5439647408671675</v>
+        <v>0.1669310767968426</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01381248748692876</v>
       </c>
       <c r="J14">
-        <v>0.03797202807989519</v>
+        <v>0.1631335254107285</v>
       </c>
       <c r="K14">
-        <v>1.245948811372898</v>
+        <v>0.07561788227151833</v>
       </c>
       <c r="L14">
-        <v>0.247874057328616</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3351328928262873</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.658039526144393</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6321039766809733</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.7095720629719011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.525338033360129</v>
+        <v>4.425697803368621</v>
       </c>
       <c r="C15">
-        <v>0.143556142970894</v>
+        <v>1.23294997420669</v>
       </c>
       <c r="D15">
-        <v>0.3806157571864333</v>
+        <v>0.3290682242319178</v>
       </c>
       <c r="E15">
-        <v>0.08858973632386835</v>
+        <v>0.09861001565250405</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.74045672751447</v>
+        <v>0.1872981783449106</v>
       </c>
       <c r="H15">
-        <v>0.5440064807738878</v>
+        <v>0.179176284285532</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01354391540417765</v>
       </c>
       <c r="J15">
-        <v>0.03804503758835276</v>
+        <v>0.1589553000269959</v>
       </c>
       <c r="K15">
-        <v>1.232362050389526</v>
+        <v>0.07488175704146549</v>
       </c>
       <c r="L15">
-        <v>0.2459448663223185</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3316412240547351</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.654693719134286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5953346338603964</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.6812509483158067</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.428635270100528</v>
+        <v>4.148104817653689</v>
       </c>
       <c r="C16">
-        <v>0.1438892971092685</v>
+        <v>1.16282089593733</v>
       </c>
       <c r="D16">
-        <v>0.3664662476714113</v>
+        <v>0.3075631989979684</v>
       </c>
       <c r="E16">
-        <v>0.0876422472671905</v>
+        <v>0.09374034679474263</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.7317929640730227</v>
+        <v>0.1808460547067128</v>
       </c>
       <c r="H16">
-        <v>0.5445158047088086</v>
+        <v>0.16527676975943</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01171395175133672</v>
       </c>
       <c r="J16">
-        <v>0.03846761057700609</v>
+        <v>0.1598091537858579</v>
       </c>
       <c r="K16">
-        <v>1.154624153880377</v>
+        <v>0.08122414049492921</v>
       </c>
       <c r="L16">
-        <v>0.2349638581134315</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3117005085124021</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.637117764769329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5630278609580088</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.6691404461204513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.369512785124897</v>
+        <v>3.920037942573401</v>
       </c>
       <c r="C17">
-        <v>0.1441075033715151</v>
+        <v>1.10993105140102</v>
       </c>
       <c r="D17">
-        <v>0.3579123300302172</v>
+        <v>0.2944699735569856</v>
       </c>
       <c r="E17">
-        <v>0.0870899390656561</v>
+        <v>0.07311691730234848</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.7269012338253162</v>
+        <v>0.1936896275193973</v>
       </c>
       <c r="H17">
-        <v>0.5450638366523322</v>
+        <v>0.1269620901363879</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01071244415556993</v>
       </c>
       <c r="J17">
-        <v>0.03873058584963873</v>
+        <v>0.1693387414637115</v>
       </c>
       <c r="K17">
-        <v>1.107033997060284</v>
+        <v>0.08922590276189002</v>
       </c>
       <c r="L17">
-        <v>0.2282914186121729</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2995256605777143</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.627723129342513</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6112318117194562</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.7161808502675768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.335575976691445</v>
+        <v>3.711920494371896</v>
       </c>
       <c r="C18">
-        <v>0.1442380410050816</v>
+        <v>1.063083887892333</v>
       </c>
       <c r="D18">
-        <v>0.3530372106365292</v>
+        <v>0.2870254181196117</v>
       </c>
       <c r="E18">
-        <v>0.08678266554015579</v>
+        <v>0.06780395738281886</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.7242383544284934</v>
+        <v>0.2272499898361175</v>
       </c>
       <c r="H18">
-        <v>0.5454635126407936</v>
+        <v>0.07423150186582461</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01003956209732415</v>
       </c>
       <c r="J18">
-        <v>0.03888321925312388</v>
+        <v>0.1886396957019727</v>
       </c>
       <c r="K18">
-        <v>1.0796942530244</v>
+        <v>0.1015886758087579</v>
       </c>
       <c r="L18">
-        <v>0.2244762427878868</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2925431764303283</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.622814905574074</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.7437696540867478</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.8276565623599339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.32409690808683</v>
+        <v>3.537807586535564</v>
       </c>
       <c r="C19">
-        <v>0.1442830982863228</v>
+        <v>1.032350299900457</v>
       </c>
       <c r="D19">
-        <v>0.351394140098634</v>
+        <v>0.2846176597103351</v>
       </c>
       <c r="E19">
-        <v>0.08668039208768619</v>
+        <v>0.1218332361648145</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.7233621890331534</v>
+        <v>0.275512868760309</v>
       </c>
       <c r="H19">
-        <v>0.5456131471645875</v>
+        <v>0.02987029106954964</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01016933796566999</v>
       </c>
       <c r="J19">
-        <v>0.03893513502339641</v>
+        <v>0.2143668810962041</v>
       </c>
       <c r="K19">
-        <v>1.070442784845397</v>
+        <v>0.1182848294063756</v>
       </c>
       <c r="L19">
-        <v>0.2231882936768415</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2901823800755565</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.621236783015945</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9517934025251833</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.9838120423568313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.375799231045875</v>
+        <v>3.462817894099885</v>
       </c>
       <c r="C20">
-        <v>0.1440837531279158</v>
+        <v>1.034246025493445</v>
       </c>
       <c r="D20">
-        <v>0.358818230846623</v>
+        <v>0.2963978554949023</v>
       </c>
       <c r="E20">
-        <v>0.08714765163040283</v>
+        <v>0.3329592168763185</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.7274062618993327</v>
+        <v>0.3675032861867749</v>
       </c>
       <c r="H20">
-        <v>0.5449967094144199</v>
+        <v>0.007103788371731312</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.0117193263822486</v>
       </c>
       <c r="J20">
-        <v>0.03870244922396715</v>
+        <v>0.2593378447302968</v>
       </c>
       <c r="K20">
-        <v>1.112096567836829</v>
+        <v>0.1473631476679671</v>
       </c>
       <c r="L20">
-        <v>0.2289993485365898</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3008195802680405</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.628671616356513</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.363981318274298</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.273113333739559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.550371430651211</v>
+        <v>3.872412466572939</v>
       </c>
       <c r="C21">
-        <v>0.1434744460896269</v>
+        <v>1.147984627661117</v>
       </c>
       <c r="D21">
-        <v>0.3843092524023035</v>
+        <v>0.3353768813630751</v>
       </c>
       <c r="E21">
-        <v>0.08884350701340793</v>
+        <v>0.3913086939451134</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.7428284075903946</v>
+        <v>0.41063646232449</v>
       </c>
       <c r="H21">
-        <v>0.5439495824200975</v>
+        <v>0.0104292816766394</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.0154462194547218</v>
       </c>
       <c r="J21">
-        <v>0.03793709198027484</v>
+        <v>0.2737474329597802</v>
       </c>
       <c r="K21">
-        <v>1.252466335377619</v>
+        <v>0.1454959750419746</v>
       </c>
       <c r="L21">
-        <v>0.2488005066742716</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3368085014701663</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.659672734624792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.567988137427605</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.395109951655485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.665190667041941</v>
+        <v>4.150281671181176</v>
       </c>
       <c r="C22">
-        <v>0.1431221276373336</v>
+        <v>1.219869614347658</v>
       </c>
       <c r="D22">
-        <v>0.4014026667538246</v>
+        <v>0.3610998402452026</v>
       </c>
       <c r="E22">
-        <v>0.09004962266671868</v>
+        <v>0.416461957484934</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7543544891597804</v>
+        <v>0.4374267905846381</v>
       </c>
       <c r="H22">
-        <v>0.5440633139420896</v>
+        <v>0.0127798525747112</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.0178702270641935</v>
       </c>
       <c r="J22">
-        <v>0.03744909756873493</v>
+        <v>0.2825107803024025</v>
       </c>
       <c r="K22">
-        <v>1.344579749013235</v>
+        <v>0.1441417269432677</v>
       </c>
       <c r="L22">
-        <v>0.2619629545738889</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3605350115374719</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.684662940651435</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.681987175032788</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.470496404176629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.603837333899321</v>
+        <v>4.002489728030923</v>
       </c>
       <c r="C23">
-        <v>0.1433059112266477</v>
+        <v>1.177250681986322</v>
       </c>
       <c r="D23">
-        <v>0.3922382073168933</v>
+        <v>0.3473509945522153</v>
       </c>
       <c r="E23">
-        <v>0.08939668952403679</v>
+        <v>0.4033253776879633</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.748065140300568</v>
+        <v>0.4249800701497861</v>
       </c>
       <c r="H23">
-        <v>0.5439272703312525</v>
+        <v>0.01150432725265477</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01630606745820806</v>
       </c>
       <c r="J23">
-        <v>0.03770843458648399</v>
+        <v>0.2787833611611745</v>
       </c>
       <c r="K23">
-        <v>1.295378798372354</v>
+        <v>0.145865241817372</v>
       </c>
       <c r="L23">
-        <v>0.2549166718266918</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3478515911190243</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.670876426455749</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.620340228170903</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.436175557077604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.372956963437787</v>
+        <v>3.442135374104794</v>
       </c>
       <c r="C24">
-        <v>0.1440944747771979</v>
+        <v>1.023538793791687</v>
       </c>
       <c r="D24">
-        <v>0.3584085406366313</v>
+        <v>0.295798090257037</v>
       </c>
       <c r="E24">
-        <v>0.08712152789133754</v>
+        <v>0.353284236448367</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.7271774743643959</v>
+        <v>0.3763386792186338</v>
       </c>
       <c r="H24">
-        <v>0.5450267946102514</v>
+        <v>0.007203594927179813</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01130700282609798</v>
       </c>
       <c r="J24">
-        <v>0.03871516528963248</v>
+        <v>0.2639814414923194</v>
       </c>
       <c r="K24">
-        <v>1.109807716702221</v>
+        <v>0.1516640060052801</v>
       </c>
       <c r="L24">
-        <v>0.2286792285366488</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3002345465129395</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.628241273622876</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.388880891118944</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.301560513209836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.126491155080714</v>
+        <v>2.837659762669148</v>
       </c>
       <c r="C25">
-        <v>0.1451368841252361</v>
+        <v>0.8590171709488743</v>
       </c>
       <c r="D25">
-        <v>0.3236157028862436</v>
+        <v>0.2411281965446648</v>
       </c>
       <c r="E25">
-        <v>0.08506234253787426</v>
+        <v>0.2995913104213486</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.7103557568669032</v>
+        <v>0.3269808773637379</v>
       </c>
       <c r="H25">
-        <v>0.5494187537055808</v>
+        <v>0.003573053847765628</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.00694437764270095</v>
       </c>
       <c r="J25">
-        <v>0.03985376403873619</v>
+        <v>0.2498317064935378</v>
       </c>
       <c r="K25">
-        <v>0.9108542784831855</v>
+        <v>0.1598293009101326</v>
       </c>
       <c r="L25">
-        <v>0.2012332355873454</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2496295643326043</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.601028217586759</v>
+        <v>1.140424757030232</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.166721197671848</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.393166758478458</v>
+        <v>2.38937385226609</v>
       </c>
       <c r="C2">
-        <v>0.7287104844609189</v>
+        <v>0.7552912627440094</v>
       </c>
       <c r="D2">
-        <v>0.2015048234538881</v>
+        <v>0.2013591744371297</v>
       </c>
       <c r="E2">
-        <v>0.2608771191510257</v>
+        <v>0.2569294643677011</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2975513034930231</v>
+        <v>0.2657332512290083</v>
       </c>
       <c r="H2">
-        <v>0.001639144887481292</v>
+        <v>0.001565456077759375</v>
       </c>
       <c r="I2">
-        <v>0.003897710564817469</v>
+        <v>0.003929158558392487</v>
       </c>
       <c r="J2">
-        <v>0.243212483760793</v>
+        <v>0.2793650194441</v>
       </c>
       <c r="K2">
-        <v>0.1699192072851083</v>
+        <v>0.1603920691971261</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1086634695847764</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.02728821286561178</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.956284469250285</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.090020439112166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.9626978515552977</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.043959038715144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.090506844747665</v>
+        <v>2.089372473342507</v>
       </c>
       <c r="C3">
-        <v>0.6465276314810637</v>
+        <v>0.6626060044748669</v>
       </c>
       <c r="D3">
-        <v>0.1749465956300753</v>
+        <v>0.1748725724623768</v>
       </c>
       <c r="E3">
-        <v>0.2342123699330259</v>
+        <v>0.2314672092947418</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2760703183870987</v>
+        <v>0.247592640363834</v>
       </c>
       <c r="H3">
-        <v>0.0007186317896297201</v>
+        <v>0.0006954499151308191</v>
       </c>
       <c r="I3">
-        <v>0.002509995099635898</v>
+        <v>0.002685363017112863</v>
       </c>
       <c r="J3">
-        <v>0.2380780852430391</v>
+        <v>0.2743266290459871</v>
       </c>
       <c r="K3">
-        <v>0.176064256602368</v>
+        <v>0.167540445548136</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1143344859356823</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0279162906892072</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8327485542370141</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.033407840399164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.8376275544787219</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.9985616037296268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.90422942518785</v>
+        <v>1.904639244297186</v>
       </c>
       <c r="C4">
-        <v>0.5963621559814669</v>
+        <v>0.6062023192755532</v>
       </c>
       <c r="D4">
-        <v>0.1587616385649824</v>
+        <v>0.1587239175341182</v>
       </c>
       <c r="E4">
-        <v>0.2178007116916518</v>
+        <v>0.2157841055480318</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2633109943369973</v>
+        <v>0.2368532701047386</v>
       </c>
       <c r="H4">
-        <v>0.0003282289055424048</v>
+        <v>0.0003235109643360268</v>
       </c>
       <c r="I4">
-        <v>0.001830858933675739</v>
+        <v>0.002064911025236427</v>
       </c>
       <c r="J4">
-        <v>0.2352250788759918</v>
+        <v>0.2713307335750841</v>
       </c>
       <c r="K4">
-        <v>0.1801609436737674</v>
+        <v>0.1721777353957492</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1180178929878348</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02879633657259628</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7569692820219771</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.000177673479158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.7609114792514973</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.9717783714768302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.828070798856544</v>
+        <v>1.829093732939327</v>
       </c>
       <c r="C5">
-        <v>0.5769987619297012</v>
+        <v>0.5843394847486536</v>
       </c>
       <c r="D5">
-        <v>0.1521923869696309</v>
+        <v>0.1521678154668109</v>
       </c>
       <c r="E5">
-        <v>0.21102436044049</v>
+        <v>0.2093053928940805</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2577221140306918</v>
+        <v>0.2321105634013065</v>
       </c>
       <c r="H5">
-        <v>0.0002100564012503803</v>
+        <v>0.000209942139207886</v>
       </c>
       <c r="I5">
-        <v>0.001652773420221187</v>
+        <v>0.001916604959109058</v>
       </c>
       <c r="J5">
-        <v>0.2338779090443595</v>
+        <v>0.2698809084366758</v>
       </c>
       <c r="K5">
-        <v>0.1816270389731169</v>
+        <v>0.1738703651318083</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1194191503465039</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0292322803406373</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7262863543614628</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.9854219978684711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7298431523251026</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.9596261102503263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.815259784682695</v>
+        <v>1.8163876937559</v>
       </c>
       <c r="C6">
-        <v>0.5750296999465547</v>
+        <v>0.5819464778408019</v>
       </c>
       <c r="D6">
-        <v>0.1511021491681817</v>
+        <v>0.1510797077809229</v>
       </c>
       <c r="E6">
-        <v>0.2098056763046543</v>
+        <v>0.2081396186235622</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.256201981046992</v>
+        <v>0.2307689677626996</v>
       </c>
       <c r="H6">
-        <v>0.0001925778261970823</v>
+        <v>0.0001930668341760811</v>
       </c>
       <c r="I6">
-        <v>0.001704124844215116</v>
+        <v>0.001989612207348834</v>
       </c>
       <c r="J6">
-        <v>0.2333452851709623</v>
+        <v>0.2693336521517864</v>
       </c>
       <c r="K6">
-        <v>0.1815325326655355</v>
+        <v>0.173842611651942</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1194725332149105</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02925663353284236</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7214214021111118</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.9810695230928275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.7249072194447237</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.9558012725200769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.902771863697438</v>
+        <v>1.903202622473174</v>
       </c>
       <c r="C7">
-        <v>0.5995033398884004</v>
+        <v>0.6087317359159954</v>
       </c>
       <c r="D7">
-        <v>0.1586702374395941</v>
+        <v>0.1586303617428229</v>
       </c>
       <c r="E7">
-        <v>0.217456524541106</v>
+        <v>0.2154520634410346</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2616008899750568</v>
+        <v>0.2377206571143731</v>
       </c>
       <c r="H7">
-        <v>0.0003255245771049964</v>
+        <v>0.0003200656363147036</v>
       </c>
       <c r="I7">
-        <v>0.002027970346272667</v>
+        <v>0.002303485442689102</v>
       </c>
       <c r="J7">
-        <v>0.2343519364701692</v>
+        <v>0.2664153376234495</v>
       </c>
       <c r="K7">
-        <v>0.1792464956447581</v>
+        <v>0.1710529509918235</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1173860945505449</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02857778917985421</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7571837664037488</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9947227553776656</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.7610027636512484</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.9637167595382579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.28832111427198</v>
+        <v>2.285487007573977</v>
       </c>
       <c r="C8">
-        <v>0.7048589149206919</v>
+        <v>0.7259110563396973</v>
       </c>
       <c r="D8">
-        <v>0.1923159093438187</v>
+        <v>0.192187593470706</v>
       </c>
       <c r="E8">
-        <v>0.2513555181973217</v>
+        <v>0.247839022486275</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2878857718851719</v>
+        <v>0.2656174894190499</v>
       </c>
       <c r="H8">
-        <v>0.00128147261745859</v>
+        <v>0.001222908833813152</v>
       </c>
       <c r="I8">
-        <v>0.003618366646952254</v>
+        <v>0.003748073430244858</v>
       </c>
       <c r="J8">
-        <v>0.2402508754971819</v>
+        <v>0.2632954003116268</v>
       </c>
       <c r="K8">
-        <v>0.1707456896842849</v>
+        <v>0.1607519038246057</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1095404776532316</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0268719514130682</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9145072017168516</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.063219173220858</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.9200311197818252</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.011866857302522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.042132750831058</v>
+        <v>3.032044752952402</v>
       </c>
       <c r="C9">
-        <v>0.9080080217396187</v>
+        <v>0.9559264428776544</v>
       </c>
       <c r="D9">
-        <v>0.2594423226649241</v>
+        <v>0.2590751300249821</v>
       </c>
       <c r="E9">
-        <v>0.318105778305231</v>
+        <v>0.3115205033412138</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3461660958437704</v>
+        <v>0.3176168404032325</v>
       </c>
       <c r="H9">
-        <v>0.004678530096343336</v>
+        <v>0.00440745506885365</v>
       </c>
       <c r="I9">
-        <v>0.007956912403233929</v>
+        <v>0.007474225192122042</v>
       </c>
       <c r="J9">
-        <v>0.2558913994517411</v>
+        <v>0.2738196378579758</v>
       </c>
       <c r="K9">
-        <v>0.1584638732308044</v>
+        <v>0.1452035414265094</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09710492995479925</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.02814222128163912</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.222844600964066</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.220278664849957</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.232103911786851</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.135361452452571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.613428758288933</v>
+        <v>3.597538644474128</v>
       </c>
       <c r="C10">
-        <v>1.064285926028333</v>
+        <v>1.128076681194898</v>
       </c>
       <c r="D10">
-        <v>0.3096784700556015</v>
+        <v>0.3090525877159536</v>
       </c>
       <c r="E10">
-        <v>0.3408291128565466</v>
+        <v>0.3323056907673347</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3827229348686814</v>
+        <v>0.3653599125928082</v>
       </c>
       <c r="H10">
-        <v>0.008125090020790093</v>
+        <v>0.00760883755195696</v>
       </c>
       <c r="I10">
-        <v>0.01231397896550934</v>
+        <v>0.01117546352494347</v>
       </c>
       <c r="J10">
-        <v>0.2645278327643865</v>
+        <v>0.2565623405321489</v>
       </c>
       <c r="K10">
-        <v>0.1475266462239269</v>
+        <v>0.1308156984442288</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08742966498474125</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.02979668857464191</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.413692937708618</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.316377040319253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.424589954112307</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.191515338858324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.041750661671813</v>
+        <v>4.024726256737495</v>
       </c>
       <c r="C11">
-        <v>1.169737975722683</v>
+        <v>1.220925626508063</v>
       </c>
       <c r="D11">
-        <v>0.3325083095082135</v>
+        <v>0.3317319713503366</v>
       </c>
       <c r="E11">
-        <v>0.1712820775642143</v>
+        <v>0.1646422484745855</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3278534540242362</v>
+        <v>0.347287854510256</v>
       </c>
       <c r="H11">
-        <v>0.02578308184708789</v>
+        <v>0.02522116173180322</v>
       </c>
       <c r="I11">
-        <v>0.01438369168309617</v>
+        <v>0.01300587251597474</v>
       </c>
       <c r="J11">
-        <v>0.2319666881574278</v>
+        <v>0.1915949953186242</v>
       </c>
       <c r="K11">
-        <v>0.1153791356975287</v>
+        <v>0.1024121299808236</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.07625229688667989</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.02114575927905271</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.193027897294854</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.132104553070747</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.200287211917512</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.9963171114602574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.292158423875321</v>
+        <v>4.275426423199178</v>
       </c>
       <c r="C12">
-        <v>1.22158088526345</v>
+        <v>1.259890689126564</v>
       </c>
       <c r="D12">
-        <v>0.3411055149008604</v>
+        <v>0.3402726976806321</v>
       </c>
       <c r="E12">
-        <v>0.08921680622398576</v>
+        <v>0.08397068376731198</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.2794828103897942</v>
+        <v>0.3157409769416404</v>
       </c>
       <c r="H12">
-        <v>0.06354746782464815</v>
+        <v>0.06299939388969733</v>
       </c>
       <c r="I12">
-        <v>0.01488983011981304</v>
+        <v>0.01339099822144085</v>
       </c>
       <c r="J12">
-        <v>0.2052438729887456</v>
+        <v>0.1599261794570026</v>
       </c>
       <c r="K12">
-        <v>0.09539706068498965</v>
+        <v>0.08682012452180121</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07103813492200084</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.01523274724973689</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9842511797217668</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.9736975538427828</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.9889135343244817</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.8474884928583464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.416866804627489</v>
+        <v>4.401596645865425</v>
       </c>
       <c r="C13">
-        <v>1.240061145498373</v>
+        <v>1.266349612278191</v>
       </c>
       <c r="D13">
-        <v>0.3390781583306932</v>
+        <v>0.3382740281622176</v>
       </c>
       <c r="E13">
-        <v>0.06815332404401531</v>
+        <v>0.06405447504279582</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.2306207153807591</v>
+        <v>0.2649508628220119</v>
       </c>
       <c r="H13">
-        <v>0.1182870189365701</v>
+        <v>0.1177998190630234</v>
       </c>
       <c r="I13">
-        <v>0.01445617215139805</v>
+        <v>0.01302779992716729</v>
       </c>
       <c r="J13">
-        <v>0.1800179015251828</v>
+        <v>0.1486178729514052</v>
       </c>
       <c r="K13">
-        <v>0.08186342539514868</v>
+        <v>0.07817834766188003</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06868125958275639</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.01083968563779703</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7748769631440169</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.8172829266201802</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7776675569076303</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.7201873453438878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.446922939593321</v>
+        <v>4.433203940946896</v>
       </c>
       <c r="C14">
-        <v>1.239028266890728</v>
+        <v>1.257243425393369</v>
       </c>
       <c r="D14">
-        <v>0.332849882435724</v>
+        <v>0.3321025480237978</v>
       </c>
       <c r="E14">
-        <v>0.0891137178198278</v>
+        <v>0.08566493696730149</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.1965139452078901</v>
+        <v>0.2227120533160516</v>
       </c>
       <c r="H14">
-        <v>0.1669310767968426</v>
+        <v>0.166501076915452</v>
       </c>
       <c r="I14">
-        <v>0.01381248748692876</v>
+        <v>0.01253054349136029</v>
       </c>
       <c r="J14">
-        <v>0.1631335254107285</v>
+        <v>0.1473853365750024</v>
       </c>
       <c r="K14">
-        <v>0.07561788227151833</v>
+        <v>0.07504241448824889</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0680316384621229</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.008580113850189086</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6321039766809733</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7095720629719011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6338760758623465</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.6391633272195776</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.425697803368621</v>
+        <v>4.412611792796724</v>
       </c>
       <c r="C15">
-        <v>1.23294997420669</v>
+        <v>1.249370276310231</v>
       </c>
       <c r="D15">
-        <v>0.3290682242319178</v>
+        <v>0.3283519591920054</v>
       </c>
       <c r="E15">
-        <v>0.09861001565250405</v>
+        <v>0.09534901747026225</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.1872981783449106</v>
+        <v>0.2089052961891511</v>
       </c>
       <c r="H15">
-        <v>0.179176284285532</v>
+        <v>0.1787711660632993</v>
       </c>
       <c r="I15">
-        <v>0.01354391540417765</v>
+        <v>0.01236090546970559</v>
       </c>
       <c r="J15">
-        <v>0.1589553000269959</v>
+        <v>0.1497384876064132</v>
       </c>
       <c r="K15">
-        <v>0.07488175704146549</v>
+        <v>0.07506749284884773</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06813287631755549</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.008184298308600013</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5953346338603964</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.6812509483158067</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5969187651153263</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.620408539624691</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.148104817653689</v>
+        <v>4.137350719658457</v>
       </c>
       <c r="C16">
-        <v>1.16282089593733</v>
+        <v>1.180655214797582</v>
       </c>
       <c r="D16">
-        <v>0.3075631989979684</v>
+        <v>0.3070017201955864</v>
       </c>
       <c r="E16">
-        <v>0.09374034679474263</v>
+        <v>0.09104977549223392</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.1808460547067128</v>
+        <v>0.1809553190187003</v>
       </c>
       <c r="H16">
-        <v>0.16527676975943</v>
+        <v>0.1649822309530578</v>
       </c>
       <c r="I16">
-        <v>0.01171395175133672</v>
+        <v>0.01092515967454144</v>
       </c>
       <c r="J16">
-        <v>0.1598091537858579</v>
+        <v>0.1764729182561808</v>
       </c>
       <c r="K16">
-        <v>0.08122414049492921</v>
+        <v>0.08197920971951378</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07061075557667429</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0093012644157211</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5630278609580088</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.6691404461204513</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5649705008649946</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.6356599765038737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.920037942573401</v>
+        <v>3.910212887936041</v>
       </c>
       <c r="C17">
-        <v>1.10993105140102</v>
+        <v>1.132113840751117</v>
       </c>
       <c r="D17">
-        <v>0.2944699735569856</v>
+        <v>0.2939871209268006</v>
       </c>
       <c r="E17">
-        <v>0.07311691730234848</v>
+        <v>0.07050641055053575</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.1936896275193973</v>
+        <v>0.1834406520260572</v>
       </c>
       <c r="H17">
-        <v>0.1269620901363879</v>
+        <v>0.1267170867663481</v>
       </c>
       <c r="I17">
-        <v>0.01071244415556993</v>
+        <v>0.0101312829414022</v>
       </c>
       <c r="J17">
-        <v>0.1693387414637115</v>
+        <v>0.1973865382193694</v>
       </c>
       <c r="K17">
-        <v>0.08922590276189002</v>
+        <v>0.0892362453487392</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07336047452954952</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01116988636033955</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6112318117194562</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.7161808502675768</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6139117216280709</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.6886405555571145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.711920494371896</v>
+        <v>3.701936922493132</v>
       </c>
       <c r="C18">
-        <v>1.063083887892333</v>
+        <v>1.093760084849976</v>
       </c>
       <c r="D18">
-        <v>0.2870254181196117</v>
+        <v>0.2865779336553516</v>
       </c>
       <c r="E18">
-        <v>0.06780395738281886</v>
+        <v>0.06467760227630182</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.2272499898361175</v>
+        <v>0.2093038584831319</v>
       </c>
       <c r="H18">
-        <v>0.07423150186582461</v>
+        <v>0.07399463332195921</v>
       </c>
       <c r="I18">
-        <v>0.01003956209732415</v>
+        <v>0.009500125798370007</v>
       </c>
       <c r="J18">
-        <v>0.1886396957019727</v>
+        <v>0.2203351631259736</v>
       </c>
       <c r="K18">
-        <v>0.1015886758087579</v>
+        <v>0.09944606677160728</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07737396662711049</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01444829634879685</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7437696540867478</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.8276565623599339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.7479392152461202</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.7922528526300994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.537807586535564</v>
+        <v>3.526843002074486</v>
       </c>
       <c r="C19">
-        <v>1.032350299900457</v>
+        <v>1.074343337720279</v>
       </c>
       <c r="D19">
-        <v>0.2846176597103351</v>
+        <v>0.2841718838260334</v>
       </c>
       <c r="E19">
-        <v>0.1218332361648145</v>
+        <v>0.1173999088837974</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.275512868760309</v>
+        <v>0.2504811881513049</v>
       </c>
       <c r="H19">
-        <v>0.02987029106954964</v>
+        <v>0.02960084848148625</v>
       </c>
       <c r="I19">
-        <v>0.01016933796566999</v>
+        <v>0.009652522391677465</v>
       </c>
       <c r="J19">
-        <v>0.2143668810962041</v>
+        <v>0.2448403156688315</v>
       </c>
       <c r="K19">
-        <v>0.1182848294063756</v>
+        <v>0.1125335653054762</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08246996592895339</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01915847704027307</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9517934025251833</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.9838120423568313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9582297902419512</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.9305003440380091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.462817894099885</v>
+        <v>3.448562120078805</v>
       </c>
       <c r="C20">
-        <v>1.034246025493445</v>
+        <v>1.095901059990382</v>
       </c>
       <c r="D20">
-        <v>0.2963978554949023</v>
+        <v>0.2958600467842416</v>
       </c>
       <c r="E20">
-        <v>0.3329592168763185</v>
+        <v>0.3249850695590766</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.3675032861867749</v>
+        <v>0.3384537007549397</v>
       </c>
       <c r="H20">
-        <v>0.007103788371731312</v>
+        <v>0.006670903938442052</v>
       </c>
       <c r="I20">
-        <v>0.0117193263822486</v>
+        <v>0.01095797556072142</v>
       </c>
       <c r="J20">
-        <v>0.2593378447302968</v>
+        <v>0.2718154626490445</v>
       </c>
       <c r="K20">
-        <v>0.1473631476679671</v>
+        <v>0.1330149464773491</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08931715235021187</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.02865241303942945</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.363981318274298</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.273113333739559</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.374755243774345</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.170695724315067</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.872412466572939</v>
+        <v>3.853212122391483</v>
       </c>
       <c r="C21">
-        <v>1.147984627661117</v>
+        <v>1.213449187565232</v>
       </c>
       <c r="D21">
-        <v>0.3353768813630751</v>
+        <v>0.3345342044589898</v>
       </c>
       <c r="E21">
-        <v>0.3913086939451134</v>
+        <v>0.3813867524545671</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.41063646232449</v>
+        <v>0.4392617257462774</v>
       </c>
       <c r="H21">
-        <v>0.0104292816766394</v>
+        <v>0.009688716227168402</v>
       </c>
       <c r="I21">
-        <v>0.0154462194547218</v>
+        <v>0.01392755345051455</v>
       </c>
       <c r="J21">
-        <v>0.2737474329597802</v>
+        <v>0.2028112081677875</v>
       </c>
       <c r="K21">
-        <v>0.1454959750419746</v>
+        <v>0.1221309570320201</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08239756559596145</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.03029686101602636</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.567988137427605</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.395109951655485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.57858666726807</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.200899610880555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.150281671181176</v>
+        <v>4.127797301195073</v>
       </c>
       <c r="C22">
-        <v>1.219869614347658</v>
+        <v>1.286143407634086</v>
       </c>
       <c r="D22">
-        <v>0.3610998402452026</v>
+        <v>0.3600312105488541</v>
       </c>
       <c r="E22">
-        <v>0.416461957484934</v>
+        <v>0.4054813040363072</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4374267905846381</v>
+        <v>0.5121209814071648</v>
       </c>
       <c r="H22">
-        <v>0.0127798525747112</v>
+        <v>0.01181127673381455</v>
       </c>
       <c r="I22">
-        <v>0.0178702270641935</v>
+        <v>0.01572215877884986</v>
       </c>
       <c r="J22">
-        <v>0.2825107803024025</v>
+        <v>0.1630154706978644</v>
       </c>
       <c r="K22">
-        <v>0.1441417269432677</v>
+        <v>0.1146966852722766</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.07803841653112098</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.03141169781569886</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.681987175032788</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.470496404176629</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.692030573752263</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.212380138856901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.002489728030923</v>
+        <v>3.981727732200397</v>
       </c>
       <c r="C23">
-        <v>1.177250681986322</v>
+        <v>1.244619458933414</v>
       </c>
       <c r="D23">
-        <v>0.3473509945522153</v>
+        <v>0.3464145203783175</v>
       </c>
       <c r="E23">
-        <v>0.4033253776879633</v>
+        <v>0.3928668597618952</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4249800701497861</v>
+        <v>0.4672116064123344</v>
       </c>
       <c r="H23">
-        <v>0.01150432725265477</v>
+        <v>0.01066836430634124</v>
       </c>
       <c r="I23">
-        <v>0.01630606745820806</v>
+        <v>0.014450684576226</v>
       </c>
       <c r="J23">
-        <v>0.2787833611611745</v>
+        <v>0.1907841437784086</v>
       </c>
       <c r="K23">
-        <v>0.145865241817372</v>
+        <v>0.1200888321060951</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08078145083205612</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.03144693350115979</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.620340228170903</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.436175557077604</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.631000078285552</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.219024450094224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.442135374104794</v>
+        <v>3.427779454619667</v>
       </c>
       <c r="C24">
-        <v>1.023538793791687</v>
+        <v>1.08619998557171</v>
       </c>
       <c r="D24">
-        <v>0.295798090257037</v>
+        <v>0.2952614012467336</v>
       </c>
       <c r="E24">
-        <v>0.353284236448367</v>
+        <v>0.3450401019164957</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3763386792186338</v>
+        <v>0.3458556500872874</v>
       </c>
       <c r="H24">
-        <v>0.007203594927179813</v>
+        <v>0.006763960573133443</v>
       </c>
       <c r="I24">
-        <v>0.01130700282609798</v>
+        <v>0.01044433318393256</v>
       </c>
       <c r="J24">
-        <v>0.2639814414923194</v>
+        <v>0.2765978905299988</v>
       </c>
       <c r="K24">
-        <v>0.1516640060052801</v>
+        <v>0.1365008353456414</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09064263982283904</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.02994399842975959</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.388880891118944</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.301560513209836</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.40000618720002</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.196391184950016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.837659762669148</v>
+        <v>2.829666359098894</v>
       </c>
       <c r="C25">
-        <v>0.8590171709488743</v>
+        <v>0.9003214380980751</v>
       </c>
       <c r="D25">
-        <v>0.2411281965446648</v>
+        <v>0.2408404469007337</v>
       </c>
       <c r="E25">
-        <v>0.2995913104213486</v>
+        <v>0.2938660016875829</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3269808773637379</v>
+        <v>0.2967861723023333</v>
       </c>
       <c r="H25">
-        <v>0.003573053847765628</v>
+        <v>0.003376776783412083</v>
       </c>
       <c r="I25">
-        <v>0.00694437764270095</v>
+        <v>0.006754183423318239</v>
       </c>
       <c r="J25">
-        <v>0.2498317064935378</v>
+        <v>0.2750248764631493</v>
       </c>
       <c r="K25">
-        <v>0.1598293009101326</v>
+        <v>0.1481590545254559</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.0998667203976833</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.02701990691819134</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.140424757030232</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.166721197671848</v>
+        <v>1.14879102431911</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.096153006121256</v>
       </c>
     </row>
   </sheetData>
